--- a/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.517089507389073</v>
+        <v>2.517089507388903</v>
       </c>
       <c r="C2">
         <v>0.6124419062642232</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.994686129933726</v>
+        <v>1.994686129933712</v>
       </c>
       <c r="J2">
-        <v>0.7011781675314452</v>
+        <v>0.7011781675314595</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.166236909415659</v>
+        <v>2.166236909415488</v>
       </c>
       <c r="C3">
-        <v>0.529557774020958</v>
+        <v>0.5295577740208159</v>
       </c>
       <c r="D3">
-        <v>0.1309684439079177</v>
+        <v>0.1309684439078325</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>1.690244405206386</v>
       </c>
       <c r="J3">
-        <v>0.6035631591587673</v>
+        <v>0.6035631591587887</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.95445922442326</v>
+        <v>1.954459224423147</v>
       </c>
       <c r="C4">
-        <v>0.4794975330285922</v>
+        <v>0.4794975330284501</v>
       </c>
       <c r="D4">
-        <v>0.1192977849055836</v>
+        <v>0.1192977849055907</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -503,16 +503,16 @@
         <v>1.841261696947868</v>
       </c>
       <c r="G4">
-        <v>1.208056690027732</v>
+        <v>1.208056690027746</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.51068776207434</v>
+        <v>1.510687762074383</v>
       </c>
       <c r="J4">
-        <v>0.5446268991649461</v>
+        <v>0.5446268991649319</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.868918163891607</v>
+        <v>1.868918163891379</v>
       </c>
       <c r="C5">
-        <v>0.4592652098158112</v>
+        <v>0.4592652098157828</v>
       </c>
       <c r="D5">
-        <v>0.1145956740204923</v>
+        <v>0.1145956740205207</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.777897199298465</v>
+        <v>1.777897199298451</v>
       </c>
       <c r="G5">
         <v>1.170557691454604</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.439040268634713</v>
+        <v>1.439040268634741</v>
       </c>
       <c r="J5">
-        <v>0.5208164898829111</v>
+        <v>0.5208164898829253</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.854755800572633</v>
+        <v>1.854755800572605</v>
       </c>
       <c r="C6">
-        <v>0.4559146634962872</v>
+        <v>0.4559146634963156</v>
       </c>
       <c r="D6">
-        <v>0.1138177496059214</v>
+        <v>0.1138177496059356</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.767460463244134</v>
+        <v>1.767460463244106</v>
       </c>
       <c r="G6">
         <v>1.164386739981666</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.427226544161783</v>
+        <v>1.427226544161755</v>
       </c>
       <c r="J6">
-        <v>0.5168740594451648</v>
+        <v>0.5168740594451862</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.953302704370117</v>
+        <v>1.953302704369946</v>
       </c>
       <c r="C7">
-        <v>0.479224044900576</v>
+        <v>0.4792240449006329</v>
       </c>
       <c r="D7">
         <v>0.1192341707959343</v>
@@ -614,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.840401318060302</v>
+        <v>1.840401318060316</v>
       </c>
       <c r="G7">
-        <v>1.207547147014679</v>
+        <v>1.207547147014651</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>1.509715731327546</v>
       </c>
       <c r="J7">
-        <v>0.5443050024489864</v>
+        <v>0.5443050024489793</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.395257754335887</v>
+        <v>2.395257754335944</v>
       </c>
       <c r="C8">
-        <v>0.5836643509321391</v>
+        <v>0.5836643509320822</v>
       </c>
       <c r="D8">
-        <v>0.1436470674050554</v>
+        <v>0.1436470674049275</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.176126304829992</v>
+        <v>2.176126304830007</v>
       </c>
       <c r="G8">
         <v>1.407047708905381</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.887968671000579</v>
+        <v>1.88796867100055</v>
       </c>
       <c r="J8">
-        <v>0.6672842286613587</v>
+        <v>0.6672842286613658</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.299169828551385</v>
+        <v>3.299169828551442</v>
       </c>
       <c r="C9">
-        <v>0.797275405085287</v>
+        <v>0.7972754050856565</v>
       </c>
       <c r="D9">
-        <v>0.1945226342736817</v>
+        <v>0.194522634273909</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.901552814324447</v>
+        <v>2.901552814324475</v>
       </c>
       <c r="G9">
-        <v>1.841481399935063</v>
+        <v>1.841481399935077</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.706539529391719</v>
+        <v>2.706539529391662</v>
       </c>
       <c r="J9">
-        <v>0.9187538037797225</v>
+        <v>0.9187538037797367</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.999968833941068</v>
+        <v>3.999968833941182</v>
       </c>
       <c r="C10">
-        <v>0.963369529408908</v>
+        <v>0.9633695294087374</v>
       </c>
       <c r="D10">
-        <v>0.2352552199374145</v>
+        <v>0.2352552199375424</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.496124126064984</v>
+        <v>3.496124126064899</v>
       </c>
       <c r="G10">
-        <v>2.19974768021315</v>
+        <v>2.199747680213136</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.387756966287967</v>
+        <v>3.387756966287981</v>
       </c>
       <c r="J10">
-        <v>1.113812794001831</v>
+        <v>1.113812794001845</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.330800132966999</v>
+        <v>4.330800132966942</v>
       </c>
       <c r="C11">
-        <v>1.042039741332786</v>
+        <v>1.042039741332559</v>
       </c>
       <c r="D11">
-        <v>0.2550070441339187</v>
+        <v>0.2550070441338761</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.786065987129518</v>
+        <v>3.786065987129604</v>
       </c>
       <c r="G11">
-        <v>2.374928972058385</v>
+        <v>2.374928972058427</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.725485669255178</v>
+        <v>3.725485669255164</v>
       </c>
       <c r="J11">
-        <v>1.20595879424107</v>
+        <v>1.205958794241084</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.458246651220577</v>
+        <v>4.45824665122052</v>
       </c>
       <c r="C12">
-        <v>1.072401835810695</v>
+        <v>1.072401835810894</v>
       </c>
       <c r="D12">
-        <v>0.2627213020902559</v>
+        <v>0.2627213020903838</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.899327493663151</v>
+        <v>3.899327493663094</v>
       </c>
       <c r="G12">
         <v>2.443425192270539</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.430694188723521</v>
+        <v>4.430694188723578</v>
       </c>
       <c r="C13">
-        <v>1.065835069338931</v>
+        <v>1.065835069339215</v>
       </c>
       <c r="D13">
-        <v>0.2610483025697619</v>
+        <v>0.2610483025695203</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.874767874091503</v>
+        <v>3.874767874091447</v>
       </c>
       <c r="G13">
-        <v>2.428569732852466</v>
+        <v>2.428569732852452</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.829687044922053</v>
+        <v>3.829687044922011</v>
       </c>
       <c r="J13">
-        <v>1.233792446809332</v>
+        <v>1.233792446809318</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.3412388898264</v>
+        <v>4.341238889826172</v>
       </c>
       <c r="C14">
-        <v>1.044525369578281</v>
+        <v>1.044525369578054</v>
       </c>
       <c r="D14">
-        <v>0.2556365878283344</v>
+        <v>0.2556365878284197</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>3.795310148178686</v>
       </c>
       <c r="G14">
-        <v>2.380518247147833</v>
+        <v>2.380518247147805</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>3.7363248425184</v>
       </c>
       <c r="J14">
-        <v>1.208867124230764</v>
+        <v>1.208867124230721</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.286742090438395</v>
+        <v>4.286742090438224</v>
       </c>
       <c r="C15">
-        <v>1.031551210191992</v>
+        <v>1.031551210192703</v>
       </c>
       <c r="D15">
-        <v>0.2523544061734952</v>
+        <v>0.2523544061736089</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.747114250546417</v>
+        <v>3.74711425054636</v>
       </c>
       <c r="G15">
-        <v>2.351380205546405</v>
+        <v>2.351380205546434</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>3.679863803322064</v>
       </c>
       <c r="J15">
-        <v>1.193684431135097</v>
+        <v>1.193684431135139</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.978625421191907</v>
+        <v>3.978625421192021</v>
       </c>
       <c r="C16">
-        <v>0.9583007515226427</v>
+        <v>0.9583007515225859</v>
       </c>
       <c r="D16">
-        <v>0.2339935935677033</v>
+        <v>0.2339935935675896</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.477620764894311</v>
+        <v>3.47762076489434</v>
       </c>
       <c r="G16">
-        <v>2.188577057557026</v>
+        <v>2.188577057557012</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.792967822851097</v>
+        <v>3.792967822850926</v>
       </c>
       <c r="C17">
-        <v>0.9142398189092944</v>
+        <v>0.9142398189090954</v>
       </c>
       <c r="D17">
-        <v>0.2230791197483484</v>
+        <v>0.2230791197484621</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.317706040891039</v>
+        <v>3.317706040891011</v>
       </c>
       <c r="G17">
         <v>2.092086152104301</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.18190311712695</v>
+        <v>3.181903117126922</v>
       </c>
       <c r="J17">
-        <v>1.056180310949586</v>
+        <v>1.056180310949557</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.687283845521449</v>
+        <v>3.68728384552179</v>
       </c>
       <c r="C18">
-        <v>0.8891811968794059</v>
+        <v>0.8891811968796048</v>
       </c>
       <c r="D18">
         <v>0.2169120311079382</v>
@@ -1032,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.227511603743125</v>
+        <v>3.227511603743153</v>
       </c>
       <c r="G18">
-        <v>2.037706805551082</v>
+        <v>2.037706805551068</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.078346277921185</v>
+        <v>3.078346277921227</v>
       </c>
       <c r="J18">
-        <v>1.026762031227904</v>
+        <v>1.026762031227918</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.651678541094725</v>
+        <v>3.651678541095009</v>
       </c>
       <c r="C19">
-        <v>0.8807422931941176</v>
+        <v>0.8807422931943165</v>
       </c>
       <c r="D19">
-        <v>0.2148414638787557</v>
+        <v>0.214841463878642</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>3.197262060421991</v>
       </c>
       <c r="G19">
-        <v>2.019476434744334</v>
+        <v>2.01947643474432</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>3.043686223260323</v>
       </c>
       <c r="J19">
-        <v>1.016851718930468</v>
+        <v>1.016851718930482</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.81261456594433</v>
+        <v>3.812614565944216</v>
       </c>
       <c r="C20">
-        <v>0.9188999850350967</v>
+        <v>0.9188999850348978</v>
       </c>
       <c r="D20">
         <v>0.2242291680229016</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.201267656575681</v>
+        <v>3.201267656575652</v>
       </c>
       <c r="J20">
-        <v>1.061649610299725</v>
+        <v>1.061649610299739</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.367451211482432</v>
+        <v>4.367451211482489</v>
       </c>
       <c r="C21">
-        <v>1.050767885151828</v>
+        <v>1.050767885152055</v>
       </c>
       <c r="D21">
-        <v>0.2572192003468814</v>
+        <v>0.2572192003469098</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.763593474443113</v>
+        <v>3.763593474443084</v>
       </c>
       <c r="J21">
-        <v>1.216170351605342</v>
+        <v>1.216170351605356</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.74299565858297</v>
+        <v>4.742995658582856</v>
       </c>
       <c r="C22">
-        <v>1.14036588140425</v>
+        <v>1.14036588140408</v>
       </c>
       <c r="D22">
-        <v>0.2801918285831846</v>
+        <v>0.2801918285830425</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>4.155533842577711</v>
       </c>
       <c r="G22">
-        <v>2.598478372665923</v>
+        <v>2.598478372665895</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.162556370597684</v>
+        <v>4.162556370597713</v>
       </c>
       <c r="J22">
-        <v>1.320845000434488</v>
+        <v>1.320845000434517</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.541202438296068</v>
+        <v>4.541202438296125</v>
       </c>
       <c r="C23">
-        <v>1.092183021354884</v>
+        <v>1.092183021354657</v>
       </c>
       <c r="D23">
-        <v>0.2677764882927818</v>
+        <v>0.2677764882925686</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.973518238755673</v>
+        <v>3.973518238755759</v>
       </c>
       <c r="G23">
         <v>2.488309907631304</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.946219597002823</v>
+        <v>3.946219597002838</v>
       </c>
       <c r="J23">
-        <v>1.264589723022112</v>
+        <v>1.264589723022098</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.80372902486306</v>
+        <v>3.803729024862946</v>
       </c>
       <c r="C24">
-        <v>0.9167922837254423</v>
+        <v>0.9167922837252149</v>
       </c>
       <c r="D24">
-        <v>0.2237088996131007</v>
+        <v>0.2237088996128449</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.326924131649264</v>
+        <v>3.326924131649236</v>
       </c>
       <c r="G24">
-        <v>2.097645668889328</v>
+        <v>2.097645668889314</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.19250531101828</v>
+        <v>3.192505311018252</v>
       </c>
       <c r="J24">
         <v>1.059176019053368</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.04935908483526</v>
+        <v>3.04935908483543</v>
       </c>
       <c r="C25">
-        <v>0.7381990745941494</v>
+        <v>0.7381990745939788</v>
       </c>
       <c r="D25">
-        <v>0.1803036998775127</v>
+        <v>0.1803036998775838</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1301,13 +1301,13 @@
         <v>2.696223246044696</v>
       </c>
       <c r="G25">
-        <v>1.718154997726657</v>
+        <v>1.718154997726685</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.47394183122816</v>
+        <v>2.473941831228203</v>
       </c>
       <c r="J25">
         <v>0.8492508301696517</v>

--- a/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.517089507388903</v>
+        <v>2.517089507389073</v>
       </c>
       <c r="C2">
         <v>0.6124419062642232</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.994686129933712</v>
+        <v>1.994686129933726</v>
       </c>
       <c r="J2">
-        <v>0.7011781675314595</v>
+        <v>0.7011781675314452</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.166236909415488</v>
+        <v>2.166236909415659</v>
       </c>
       <c r="C3">
-        <v>0.5295577740208159</v>
+        <v>0.529557774020958</v>
       </c>
       <c r="D3">
-        <v>0.1309684439078325</v>
+        <v>0.1309684439079177</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>1.690244405206386</v>
       </c>
       <c r="J3">
-        <v>0.6035631591587887</v>
+        <v>0.6035631591587673</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.954459224423147</v>
+        <v>1.95445922442326</v>
       </c>
       <c r="C4">
-        <v>0.4794975330284501</v>
+        <v>0.4794975330285922</v>
       </c>
       <c r="D4">
-        <v>0.1192977849055907</v>
+        <v>0.1192977849055836</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -503,16 +503,16 @@
         <v>1.841261696947868</v>
       </c>
       <c r="G4">
-        <v>1.208056690027746</v>
+        <v>1.208056690027732</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.510687762074383</v>
+        <v>1.51068776207434</v>
       </c>
       <c r="J4">
-        <v>0.5446268991649319</v>
+        <v>0.5446268991649461</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.868918163891379</v>
+        <v>1.868918163891607</v>
       </c>
       <c r="C5">
-        <v>0.4592652098157828</v>
+        <v>0.4592652098158112</v>
       </c>
       <c r="D5">
-        <v>0.1145956740205207</v>
+        <v>0.1145956740204923</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.777897199298451</v>
+        <v>1.777897199298465</v>
       </c>
       <c r="G5">
         <v>1.170557691454604</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.439040268634741</v>
+        <v>1.439040268634713</v>
       </c>
       <c r="J5">
-        <v>0.5208164898829253</v>
+        <v>0.5208164898829111</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.854755800572605</v>
+        <v>1.854755800572633</v>
       </c>
       <c r="C6">
-        <v>0.4559146634963156</v>
+        <v>0.4559146634962872</v>
       </c>
       <c r="D6">
-        <v>0.1138177496059356</v>
+        <v>0.1138177496059214</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.767460463244106</v>
+        <v>1.767460463244134</v>
       </c>
       <c r="G6">
         <v>1.164386739981666</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.427226544161755</v>
+        <v>1.427226544161783</v>
       </c>
       <c r="J6">
-        <v>0.5168740594451862</v>
+        <v>0.5168740594451648</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.953302704369946</v>
+        <v>1.953302704370117</v>
       </c>
       <c r="C7">
-        <v>0.4792240449006329</v>
+        <v>0.479224044900576</v>
       </c>
       <c r="D7">
         <v>0.1192341707959343</v>
@@ -614,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.840401318060316</v>
+        <v>1.840401318060302</v>
       </c>
       <c r="G7">
-        <v>1.207547147014651</v>
+        <v>1.207547147014679</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>1.509715731327546</v>
       </c>
       <c r="J7">
-        <v>0.5443050024489793</v>
+        <v>0.5443050024489864</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.395257754335944</v>
+        <v>2.395257754335887</v>
       </c>
       <c r="C8">
-        <v>0.5836643509320822</v>
+        <v>0.5836643509321391</v>
       </c>
       <c r="D8">
-        <v>0.1436470674049275</v>
+        <v>0.1436470674050554</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.176126304830007</v>
+        <v>2.176126304829992</v>
       </c>
       <c r="G8">
         <v>1.407047708905381</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.88796867100055</v>
+        <v>1.887968671000579</v>
       </c>
       <c r="J8">
-        <v>0.6672842286613658</v>
+        <v>0.6672842286613587</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.299169828551442</v>
+        <v>3.299169828551385</v>
       </c>
       <c r="C9">
-        <v>0.7972754050856565</v>
+        <v>0.797275405085287</v>
       </c>
       <c r="D9">
-        <v>0.194522634273909</v>
+        <v>0.1945226342736817</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.901552814324475</v>
+        <v>2.901552814324447</v>
       </c>
       <c r="G9">
-        <v>1.841481399935077</v>
+        <v>1.841481399935063</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.706539529391662</v>
+        <v>2.706539529391719</v>
       </c>
       <c r="J9">
-        <v>0.9187538037797367</v>
+        <v>0.9187538037797225</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.999968833941182</v>
+        <v>3.999968833941068</v>
       </c>
       <c r="C10">
-        <v>0.9633695294087374</v>
+        <v>0.963369529408908</v>
       </c>
       <c r="D10">
-        <v>0.2352552199375424</v>
+        <v>0.2352552199374145</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.496124126064899</v>
+        <v>3.496124126064984</v>
       </c>
       <c r="G10">
-        <v>2.199747680213136</v>
+        <v>2.19974768021315</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.387756966287981</v>
+        <v>3.387756966287967</v>
       </c>
       <c r="J10">
-        <v>1.113812794001845</v>
+        <v>1.113812794001831</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.330800132966942</v>
+        <v>4.330800132966999</v>
       </c>
       <c r="C11">
-        <v>1.042039741332559</v>
+        <v>1.042039741332786</v>
       </c>
       <c r="D11">
-        <v>0.2550070441338761</v>
+        <v>0.2550070441339187</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.786065987129604</v>
+        <v>3.786065987129518</v>
       </c>
       <c r="G11">
-        <v>2.374928972058427</v>
+        <v>2.374928972058385</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.725485669255164</v>
+        <v>3.725485669255178</v>
       </c>
       <c r="J11">
-        <v>1.205958794241084</v>
+        <v>1.20595879424107</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.45824665122052</v>
+        <v>4.458246651220577</v>
       </c>
       <c r="C12">
-        <v>1.072401835810894</v>
+        <v>1.072401835810695</v>
       </c>
       <c r="D12">
-        <v>0.2627213020903838</v>
+        <v>0.2627213020902559</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.899327493663094</v>
+        <v>3.899327493663151</v>
       </c>
       <c r="G12">
         <v>2.443425192270539</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.430694188723578</v>
+        <v>4.430694188723521</v>
       </c>
       <c r="C13">
-        <v>1.065835069339215</v>
+        <v>1.065835069338931</v>
       </c>
       <c r="D13">
-        <v>0.2610483025695203</v>
+        <v>0.2610483025697619</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.874767874091447</v>
+        <v>3.874767874091503</v>
       </c>
       <c r="G13">
-        <v>2.428569732852452</v>
+        <v>2.428569732852466</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.829687044922011</v>
+        <v>3.829687044922053</v>
       </c>
       <c r="J13">
-        <v>1.233792446809318</v>
+        <v>1.233792446809332</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.341238889826172</v>
+        <v>4.3412388898264</v>
       </c>
       <c r="C14">
-        <v>1.044525369578054</v>
+        <v>1.044525369578281</v>
       </c>
       <c r="D14">
-        <v>0.2556365878284197</v>
+        <v>0.2556365878283344</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>3.795310148178686</v>
       </c>
       <c r="G14">
-        <v>2.380518247147805</v>
+        <v>2.380518247147833</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>3.7363248425184</v>
       </c>
       <c r="J14">
-        <v>1.208867124230721</v>
+        <v>1.208867124230764</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.286742090438224</v>
+        <v>4.286742090438395</v>
       </c>
       <c r="C15">
-        <v>1.031551210192703</v>
+        <v>1.031551210191992</v>
       </c>
       <c r="D15">
-        <v>0.2523544061736089</v>
+        <v>0.2523544061734952</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.74711425054636</v>
+        <v>3.747114250546417</v>
       </c>
       <c r="G15">
-        <v>2.351380205546434</v>
+        <v>2.351380205546405</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>3.679863803322064</v>
       </c>
       <c r="J15">
-        <v>1.193684431135139</v>
+        <v>1.193684431135097</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.978625421192021</v>
+        <v>3.978625421191907</v>
       </c>
       <c r="C16">
-        <v>0.9583007515225859</v>
+        <v>0.9583007515226427</v>
       </c>
       <c r="D16">
-        <v>0.2339935935675896</v>
+        <v>0.2339935935677033</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.47762076489434</v>
+        <v>3.477620764894311</v>
       </c>
       <c r="G16">
-        <v>2.188577057557012</v>
+        <v>2.188577057557026</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.792967822850926</v>
+        <v>3.792967822851097</v>
       </c>
       <c r="C17">
-        <v>0.9142398189090954</v>
+        <v>0.9142398189092944</v>
       </c>
       <c r="D17">
-        <v>0.2230791197484621</v>
+        <v>0.2230791197483484</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.317706040891011</v>
+        <v>3.317706040891039</v>
       </c>
       <c r="G17">
         <v>2.092086152104301</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.181903117126922</v>
+        <v>3.18190311712695</v>
       </c>
       <c r="J17">
-        <v>1.056180310949557</v>
+        <v>1.056180310949586</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.68728384552179</v>
+        <v>3.687283845521449</v>
       </c>
       <c r="C18">
-        <v>0.8891811968796048</v>
+        <v>0.8891811968794059</v>
       </c>
       <c r="D18">
         <v>0.2169120311079382</v>
@@ -1032,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.227511603743153</v>
+        <v>3.227511603743125</v>
       </c>
       <c r="G18">
-        <v>2.037706805551068</v>
+        <v>2.037706805551082</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.078346277921227</v>
+        <v>3.078346277921185</v>
       </c>
       <c r="J18">
-        <v>1.026762031227918</v>
+        <v>1.026762031227904</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.651678541095009</v>
+        <v>3.651678541094725</v>
       </c>
       <c r="C19">
-        <v>0.8807422931943165</v>
+        <v>0.8807422931941176</v>
       </c>
       <c r="D19">
-        <v>0.214841463878642</v>
+        <v>0.2148414638787557</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>3.197262060421991</v>
       </c>
       <c r="G19">
-        <v>2.01947643474432</v>
+        <v>2.019476434744334</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>3.043686223260323</v>
       </c>
       <c r="J19">
-        <v>1.016851718930482</v>
+        <v>1.016851718930468</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.812614565944216</v>
+        <v>3.81261456594433</v>
       </c>
       <c r="C20">
-        <v>0.9188999850348978</v>
+        <v>0.9188999850350967</v>
       </c>
       <c r="D20">
         <v>0.2242291680229016</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.201267656575652</v>
+        <v>3.201267656575681</v>
       </c>
       <c r="J20">
-        <v>1.061649610299739</v>
+        <v>1.061649610299725</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.367451211482489</v>
+        <v>4.367451211482432</v>
       </c>
       <c r="C21">
-        <v>1.050767885152055</v>
+        <v>1.050767885151828</v>
       </c>
       <c r="D21">
-        <v>0.2572192003469098</v>
+        <v>0.2572192003468814</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.763593474443084</v>
+        <v>3.763593474443113</v>
       </c>
       <c r="J21">
-        <v>1.216170351605356</v>
+        <v>1.216170351605342</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.742995658582856</v>
+        <v>4.74299565858297</v>
       </c>
       <c r="C22">
-        <v>1.14036588140408</v>
+        <v>1.14036588140425</v>
       </c>
       <c r="D22">
-        <v>0.2801918285830425</v>
+        <v>0.2801918285831846</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>4.155533842577711</v>
       </c>
       <c r="G22">
-        <v>2.598478372665895</v>
+        <v>2.598478372665923</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.162556370597713</v>
+        <v>4.162556370597684</v>
       </c>
       <c r="J22">
-        <v>1.320845000434517</v>
+        <v>1.320845000434488</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.541202438296125</v>
+        <v>4.541202438296068</v>
       </c>
       <c r="C23">
-        <v>1.092183021354657</v>
+        <v>1.092183021354884</v>
       </c>
       <c r="D23">
-        <v>0.2677764882925686</v>
+        <v>0.2677764882927818</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.973518238755759</v>
+        <v>3.973518238755673</v>
       </c>
       <c r="G23">
         <v>2.488309907631304</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.946219597002838</v>
+        <v>3.946219597002823</v>
       </c>
       <c r="J23">
-        <v>1.264589723022098</v>
+        <v>1.264589723022112</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.803729024862946</v>
+        <v>3.80372902486306</v>
       </c>
       <c r="C24">
-        <v>0.9167922837252149</v>
+        <v>0.9167922837254423</v>
       </c>
       <c r="D24">
-        <v>0.2237088996128449</v>
+        <v>0.2237088996131007</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.326924131649236</v>
+        <v>3.326924131649264</v>
       </c>
       <c r="G24">
-        <v>2.097645668889314</v>
+        <v>2.097645668889328</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.192505311018252</v>
+        <v>3.19250531101828</v>
       </c>
       <c r="J24">
         <v>1.059176019053368</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.04935908483543</v>
+        <v>3.04935908483526</v>
       </c>
       <c r="C25">
-        <v>0.7381990745939788</v>
+        <v>0.7381990745941494</v>
       </c>
       <c r="D25">
-        <v>0.1803036998775838</v>
+        <v>0.1803036998775127</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1301,13 +1301,13 @@
         <v>2.696223246044696</v>
       </c>
       <c r="G25">
-        <v>1.718154997726685</v>
+        <v>1.718154997726657</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.473941831228203</v>
+        <v>2.47394183122816</v>
       </c>
       <c r="J25">
         <v>0.8492508301696517</v>

--- a/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.517089507389073</v>
+        <v>2.516947793287954</v>
       </c>
       <c r="C2">
-        <v>0.6124419062642232</v>
+        <v>0.6123728184717265</v>
       </c>
       <c r="D2">
-        <v>0.1504206215531809</v>
+        <v>0.1507500535198574</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.270989451921693</v>
+        <v>2.266723914066603</v>
       </c>
       <c r="G2">
-        <v>1.463630721109965</v>
+        <v>0.4712892811303959</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.9924302169146841</v>
       </c>
       <c r="I2">
-        <v>1.994686129933726</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7011781675314452</v>
+        <v>1.994616983434668</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7011298115125655</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.166236909415659</v>
+        <v>2.166154469571097</v>
       </c>
       <c r="C3">
-        <v>0.529557774020958</v>
+        <v>0.5295148999170181</v>
       </c>
       <c r="D3">
-        <v>0.1309684439079177</v>
+        <v>0.1312522685699378</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.000455778647122</v>
+        <v>1.996718378270586</v>
       </c>
       <c r="G3">
-        <v>1.30249848454153</v>
+        <v>0.4144834110712878</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.8886823550400749</v>
       </c>
       <c r="I3">
-        <v>1.690244405206386</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6035631591587673</v>
+        <v>1.690204795805073</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6035343959410255</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.95445922442326</v>
+        <v>1.954406766073475</v>
       </c>
       <c r="C4">
-        <v>0.4794975330285922</v>
+        <v>0.4794688953932962</v>
       </c>
       <c r="D4">
-        <v>0.1192977849055836</v>
+        <v>0.1195537268736757</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.841261696947868</v>
+        <v>1.83783897852166</v>
       </c>
       <c r="G4">
-        <v>1.208056690027732</v>
+        <v>0.3810797393696532</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.8279891385142122</v>
       </c>
       <c r="I4">
-        <v>1.51068776207434</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5446268991649461</v>
+        <v>1.510662238914463</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5446082772690559</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.868918163891607</v>
+        <v>1.868876556969525</v>
       </c>
       <c r="C5">
-        <v>0.4592652098158112</v>
+        <v>0.4592419847254803</v>
       </c>
       <c r="D5">
-        <v>0.1145956740204923</v>
+        <v>0.114840275175645</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.777897199298465</v>
+        <v>1.774600744808694</v>
       </c>
       <c r="G5">
-        <v>1.170557691454604</v>
+        <v>0.367789527474315</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8039187639284648</v>
       </c>
       <c r="I5">
-        <v>1.439040268634713</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5208164898829111</v>
+        <v>1.439019695691073</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.520801599798844</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.854755800572633</v>
+        <v>1.854715919499341</v>
       </c>
       <c r="C6">
-        <v>0.4559146634962872</v>
+        <v>0.4558923157310915</v>
       </c>
       <c r="D6">
-        <v>0.1138177496059214</v>
+        <v>0.1140604686803641</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.767460463244134</v>
+        <v>1.764184867387755</v>
       </c>
       <c r="G6">
-        <v>1.164386739981666</v>
+        <v>0.3656008269882989</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.7999593789037789</v>
       </c>
       <c r="I6">
-        <v>1.427226544161783</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5168740594451648</v>
+        <v>1.427206751160512</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5168597667676522</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.953302704370117</v>
+        <v>1.953250397600158</v>
       </c>
       <c r="C7">
-        <v>0.479224044900576</v>
+        <v>0.4791954817407031</v>
       </c>
       <c r="D7">
-        <v>0.1192341707959343</v>
+        <v>0.1194899597416921</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.840401318060302</v>
+        <v>1.836980309920335</v>
       </c>
       <c r="G7">
-        <v>1.207547147014679</v>
+        <v>0.3808992594243534</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.8276619502354521</v>
       </c>
       <c r="I7">
-        <v>1.509715731327546</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5443050024489864</v>
+        <v>1.509690277863825</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5442864324150136</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.395257754335887</v>
+        <v>2.395137970069868</v>
       </c>
       <c r="C8">
-        <v>0.5836643509321391</v>
+        <v>0.5836047387876135</v>
       </c>
       <c r="D8">
-        <v>0.1436470674050554</v>
+        <v>0.1439607438058488</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.176126304829992</v>
+        <v>2.172045148708165</v>
       </c>
       <c r="G8">
-        <v>1.407047708905381</v>
+        <v>0.4513650194739824</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.9559733633145271</v>
       </c>
       <c r="I8">
-        <v>1.887968671000579</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6672842286613587</v>
+        <v>1.887910705389615</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.667243068680591</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.299169828551385</v>
+        <v>3.298853169414713</v>
       </c>
       <c r="C9">
-        <v>0.797275405085287</v>
+        <v>0.7971357871199416</v>
       </c>
       <c r="D9">
-        <v>0.1945226342736817</v>
+        <v>0.1949511509708799</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.901552814324447</v>
+        <v>2.896076556487884</v>
       </c>
       <c r="G9">
-        <v>1.841481399935063</v>
+        <v>0.6038360195020971</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.236411406055709</v>
       </c>
       <c r="I9">
-        <v>2.706539529391719</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9187538037797225</v>
+        <v>2.70637137973479</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9186492457922384</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.999968833941068</v>
+        <v>3.999443519697763</v>
       </c>
       <c r="C10">
-        <v>0.963369529408908</v>
+        <v>0.9631515509304052</v>
       </c>
       <c r="D10">
-        <v>0.2352552199374145</v>
+        <v>0.235769289231996</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.496124126064984</v>
+        <v>3.489517778777667</v>
       </c>
       <c r="G10">
-        <v>2.19974768021315</v>
+        <v>0.728922676903025</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.468363519036203</v>
       </c>
       <c r="I10">
-        <v>3.387756966287967</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1.113812794001831</v>
+        <v>3.387449583163757</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.113642583646438</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.330800132966999</v>
+        <v>4.33015809545401</v>
       </c>
       <c r="C11">
-        <v>1.042039741332786</v>
+        <v>1.041779304977865</v>
       </c>
       <c r="D11">
-        <v>0.2550070441339187</v>
+        <v>0.2555602704801032</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.786065987129518</v>
+        <v>3.778908783158897</v>
       </c>
       <c r="G11">
-        <v>2.374928972058385</v>
+        <v>0.789933597890311</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.581939044324102</v>
       </c>
       <c r="I11">
-        <v>3.725485669255178</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.20595879424107</v>
+        <v>3.725090710868486</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.205752189842258</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.458246651220577</v>
+        <v>4.457556336888445</v>
       </c>
       <c r="C12">
-        <v>1.072401835810695</v>
+        <v>1.072124035507557</v>
       </c>
       <c r="D12">
-        <v>0.2627213020902559</v>
+        <v>0.2632893724855734</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.899327493663151</v>
+        <v>3.891954758180106</v>
       </c>
       <c r="G12">
-        <v>2.443425192270539</v>
+        <v>0.8137661037870885</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.626370760671193</v>
       </c>
       <c r="I12">
-        <v>3.858616323280486</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1.241470354767372</v>
+        <v>3.858183112132892</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.241248745444054</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.430694188723521</v>
+        <v>4.430014471445077</v>
       </c>
       <c r="C13">
-        <v>1.065835069338931</v>
+        <v>1.065561071921167</v>
       </c>
       <c r="D13">
-        <v>0.2610483025697619</v>
+        <v>0.261613175855544</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.874767874091503</v>
+        <v>3.867441897855969</v>
       </c>
       <c r="G13">
-        <v>2.428569732852466</v>
+        <v>0.8085983383482613</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.616733360451533</v>
       </c>
       <c r="I13">
-        <v>3.829687044922053</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.233792446809332</v>
+        <v>3.829262332778342</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.233574129067676</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.3412388898264</v>
+        <v>4.340592968780527</v>
       </c>
       <c r="C14">
-        <v>1.044525369578281</v>
+        <v>1.044263532593646</v>
       </c>
       <c r="D14">
-        <v>0.2556365878283344</v>
+        <v>0.2561910352652603</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.795310148178686</v>
+        <v>3.78813536268737</v>
       </c>
       <c r="G14">
-        <v>2.380518247147833</v>
+        <v>0.7918787839064123</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.585564192177216</v>
       </c>
       <c r="I14">
-        <v>3.7363248425184</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.208867124230764</v>
+        <v>3.735926851076087</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.208659311862988</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.286742090438395</v>
+        <v>4.286116306395911</v>
       </c>
       <c r="C15">
-        <v>1.031551210191992</v>
+        <v>1.031296643443994</v>
       </c>
       <c r="D15">
-        <v>0.2523544061734952</v>
+        <v>0.2529024686606931</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.747114250546417</v>
+        <v>3.740031112524775</v>
       </c>
       <c r="G15">
-        <v>2.351380205546405</v>
+        <v>0.7817372110389726</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.566666489997843</v>
       </c>
       <c r="I15">
-        <v>3.679863803322064</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.193684431135097</v>
+        <v>3.679481455401074</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.193482884218412</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.978625421191907</v>
+        <v>3.978107222701738</v>
       </c>
       <c r="C16">
-        <v>0.9583007515226427</v>
+        <v>0.9580853867562666</v>
       </c>
       <c r="D16">
-        <v>0.2339935935677033</v>
+        <v>0.234505107562029</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.477620764894311</v>
+        <v>3.471049548487372</v>
       </c>
       <c r="G16">
-        <v>2.188577057557026</v>
+        <v>0.725029194165927</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.461124401730231</v>
       </c>
       <c r="I16">
-        <v>3.366342843337733</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1.10786967704486</v>
+        <v>3.366040574974932</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.107701691504033</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.792967822851097</v>
+        <v>3.792509460469375</v>
       </c>
       <c r="C17">
-        <v>0.9142398189092944</v>
+        <v>0.9140465704872156</v>
       </c>
       <c r="D17">
-        <v>0.2230791197483484</v>
+        <v>0.2235682665023404</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.317706040891039</v>
+        <v>3.311438437981252</v>
       </c>
       <c r="G17">
-        <v>2.092086152104301</v>
+        <v>0.6913810992943183</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.398610592170655</v>
       </c>
       <c r="I17">
-        <v>3.18190311712695</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1.056180310949586</v>
+        <v>3.181642839911206</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.056031067054747</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.687283845521449</v>
+        <v>3.686857917401881</v>
       </c>
       <c r="C18">
-        <v>0.8891811968794059</v>
+        <v>0.8890000511363496</v>
       </c>
       <c r="D18">
-        <v>0.2169120311079382</v>
+        <v>0.2173883371752794</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.227511603743125</v>
+        <v>3.221415293122902</v>
       </c>
       <c r="G18">
-        <v>2.037706805551082</v>
+        <v>0.6724043634360442</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.363393894528471</v>
       </c>
       <c r="I18">
-        <v>3.078346277921185</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1.026762031227904</v>
+        <v>3.078107999460215</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.026622973884614</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.651678541094725</v>
+        <v>3.651263278236115</v>
       </c>
       <c r="C19">
-        <v>0.8807422931941176</v>
+        <v>0.8805651468402118</v>
       </c>
       <c r="D19">
-        <v>0.2148414638787557</v>
+        <v>0.2153134267412184</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.197262060421991</v>
+        <v>3.191223215114974</v>
       </c>
       <c r="G19">
-        <v>2.019476434744334</v>
+        <v>0.6660401936267419</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.351590109312383</v>
       </c>
       <c r="I19">
-        <v>3.043686223260323</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1.016851718930468</v>
+        <v>3.04345506103985</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.016716015946329</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.81261456594433</v>
+        <v>3.812150044887915</v>
       </c>
       <c r="C20">
-        <v>0.9188999850350967</v>
+        <v>0.9187044481618614</v>
       </c>
       <c r="D20">
-        <v>0.2242291680229016</v>
+        <v>0.2247206933551382</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.334540264078782</v>
+        <v>3.328240696757888</v>
       </c>
       <c r="G20">
-        <v>2.102239276860089</v>
+        <v>0.6949231087215111</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.405187037854859</v>
       </c>
       <c r="I20">
-        <v>3.201267656575681</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1.061649610299725</v>
+        <v>3.201003141539871</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.061498434485088</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.367451211482432</v>
+        <v>4.366795483337796</v>
       </c>
       <c r="C21">
-        <v>1.050767885151828</v>
+        <v>1.050502514212468</v>
       </c>
       <c r="D21">
-        <v>0.2572192003468814</v>
+        <v>0.2577767099094217</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.81854852502633</v>
+        <v>3.811329535171524</v>
       </c>
       <c r="G21">
-        <v>2.39456980777608</v>
+        <v>0.7967686593475065</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.594678267171062</v>
       </c>
       <c r="I21">
-        <v>3.763593474443113</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.216170351605342</v>
+        <v>3.76318778896524</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.215959489491837</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.74299565858297</v>
+        <v>4.742190506368388</v>
       </c>
       <c r="C22">
-        <v>1.14036588140425</v>
+        <v>1.140047143593904</v>
       </c>
       <c r="D22">
-        <v>0.2801918285831846</v>
+        <v>0.2807925282075558</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.155533842577711</v>
+        <v>4.147672319780185</v>
       </c>
       <c r="G22">
-        <v>2.598478372665923</v>
+        <v>0.8676722572383966</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.726993385130456</v>
       </c>
       <c r="I22">
-        <v>4.162556370597684</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.320845000434488</v>
+        <v>4.162027340504821</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.320587787494844</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.541202438296068</v>
+        <v>4.54047967722272</v>
       </c>
       <c r="C23">
-        <v>1.092183021354884</v>
+        <v>1.091893605340942</v>
       </c>
       <c r="D23">
-        <v>0.2677764882927818</v>
+        <v>0.2683541434357295</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.973518238755673</v>
+        <v>3.966004160841777</v>
       </c>
       <c r="G23">
-        <v>2.488309907631304</v>
+        <v>0.8293767777466883</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.655492907066005</v>
       </c>
       <c r="I23">
-        <v>3.946219597002823</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1.264589723022112</v>
+        <v>3.945760004100904</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.264358042176909</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.80372902486306</v>
+        <v>3.803267294201873</v>
       </c>
       <c r="C24">
-        <v>0.9167922837254423</v>
+        <v>0.9165977833468446</v>
       </c>
       <c r="D24">
-        <v>0.2237088996131007</v>
+        <v>0.2241993495310481</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.326924131649264</v>
+        <v>3.320639025474037</v>
       </c>
       <c r="G24">
-        <v>2.097645668889328</v>
+        <v>0.6933206299515717</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.402211592766847</v>
       </c>
       <c r="I24">
-        <v>3.19250531101828</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1.059176019053368</v>
+        <v>3.19224271846538</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.059025718471929</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.04935908483526</v>
+        <v>3.049104780302855</v>
       </c>
       <c r="C25">
-        <v>0.7381990745941494</v>
+        <v>0.7380838469773892</v>
       </c>
       <c r="D25">
-        <v>0.1803036998775127</v>
+        <v>0.1807009589928725</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.696223246044696</v>
+        <v>2.691139060668831</v>
       </c>
       <c r="G25">
-        <v>1.718154997726657</v>
+        <v>0.5606576696033585</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.156691018196881</v>
       </c>
       <c r="I25">
-        <v>2.47394183122816</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8492508301696517</v>
+        <v>2.473810896511054</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8491661253580389</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.516947793287954</v>
+        <v>2.630425984042461</v>
       </c>
       <c r="C2">
-        <v>0.6123728184717265</v>
+        <v>0.430064236296289</v>
       </c>
       <c r="D2">
-        <v>0.1507500535198574</v>
+        <v>0.1652528400506981</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.266723914066603</v>
+        <v>7.286045443307529</v>
       </c>
       <c r="G2">
-        <v>0.4712892811303959</v>
+        <v>0.0008525939415755319</v>
       </c>
       <c r="H2">
-        <v>0.9924302169146841</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.994616983434668</v>
+        <v>0.1250596844023946</v>
       </c>
       <c r="K2">
-        <v>0.7011298115125655</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.08713541722273987</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.3891186339286463</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.166154469571097</v>
+        <v>2.320227578323227</v>
       </c>
       <c r="C3">
-        <v>0.5295148999170181</v>
+        <v>0.3669933877716574</v>
       </c>
       <c r="D3">
-        <v>0.1312522685699378</v>
+        <v>0.1431630002438311</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.996718378270586</v>
+        <v>6.62043936700428</v>
       </c>
       <c r="G3">
-        <v>0.4144834110712878</v>
+        <v>0.000864153598741755</v>
       </c>
       <c r="H3">
-        <v>0.8886823550400749</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.690204795805073</v>
+        <v>0.1206829396780016</v>
       </c>
       <c r="K3">
-        <v>0.6035343959410255</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.08387195821470073</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3477155258195239</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.954406766073475</v>
+        <v>2.136372008766728</v>
       </c>
       <c r="C4">
-        <v>0.4794688953932962</v>
+        <v>0.3293003284715041</v>
       </c>
       <c r="D4">
-        <v>0.1195537268736757</v>
+        <v>0.1298856153235306</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.83783897852166</v>
+        <v>6.222417254176747</v>
       </c>
       <c r="G4">
-        <v>0.3810797393696532</v>
+        <v>0.000871408953720213</v>
       </c>
       <c r="H4">
-        <v>0.8279891385142122</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.510662238914463</v>
+        <v>0.1180507331984693</v>
       </c>
       <c r="K4">
-        <v>0.5446082772690559</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0820850879817101</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3232954500027319</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.868876556969525</v>
+        <v>2.062926663159146</v>
       </c>
       <c r="C5">
-        <v>0.4592419847254803</v>
+        <v>0.3141607787580938</v>
       </c>
       <c r="D5">
-        <v>0.114840275175645</v>
+        <v>0.1245351142461004</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.774600744808694</v>
+        <v>6.062550721038747</v>
       </c>
       <c r="G5">
-        <v>0.367789527474315</v>
+        <v>0.0008744083224114631</v>
       </c>
       <c r="H5">
-        <v>0.8039187639284648</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.439019695691073</v>
+        <v>0.1169889143632545</v>
       </c>
       <c r="K5">
-        <v>0.520801599798844</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0814082530302187</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.313570348697283</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.854715919499341</v>
+        <v>2.050815319008166</v>
       </c>
       <c r="C6">
-        <v>0.4558923157310915</v>
+        <v>0.3116591351585498</v>
       </c>
       <c r="D6">
-        <v>0.1140604686803641</v>
+        <v>0.1236499786294161</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.764184867387755</v>
+        <v>6.03613617669626</v>
       </c>
       <c r="G6">
-        <v>0.3656008269882989</v>
+        <v>0.0008749090323943102</v>
       </c>
       <c r="H6">
-        <v>0.7999593789037789</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.427206751160512</v>
+        <v>0.1168131712691931</v>
       </c>
       <c r="K6">
-        <v>0.5168597667676522</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.08129887766677513</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3119684718281661</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.953250397600158</v>
+        <v>2.135375747240687</v>
       </c>
       <c r="C7">
-        <v>0.4791954817407031</v>
+        <v>0.3290953062011113</v>
       </c>
       <c r="D7">
-        <v>0.1194899597416921</v>
+        <v>0.1298132277611472</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.836980309920335</v>
+        <v>6.220252239486939</v>
       </c>
       <c r="G7">
-        <v>0.3808992594243534</v>
+        <v>0.0008714492271887965</v>
       </c>
       <c r="H7">
-        <v>0.8276619502354521</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.509690277863825</v>
+        <v>0.1180363730846246</v>
       </c>
       <c r="K7">
-        <v>0.5442864324150136</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.08207575612056672</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3231634095762814</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.395137970069868</v>
+        <v>2.521980960556903</v>
       </c>
       <c r="C8">
-        <v>0.5836047387876135</v>
+        <v>0.408078206495702</v>
       </c>
       <c r="D8">
-        <v>0.1439607438058488</v>
+        <v>0.1575694780500498</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.172045148708165</v>
+        <v>7.054109005511606</v>
       </c>
       <c r="G8">
-        <v>0.4513650194739824</v>
+        <v>0.0008565489515274812</v>
       </c>
       <c r="H8">
-        <v>0.9559733633145271</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.887910705389615</v>
+        <v>0.1235372067946336</v>
       </c>
       <c r="K8">
-        <v>0.667243068680591</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.0859631114834869</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3746186808902507</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.298853169414713</v>
+        <v>3.342041454610921</v>
       </c>
       <c r="C9">
-        <v>0.7971357871199416</v>
+        <v>0.5731783214699249</v>
       </c>
       <c r="D9">
-        <v>0.1949511509708799</v>
+        <v>0.2148696441227855</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.896076556487884</v>
+        <v>8.791857632957232</v>
       </c>
       <c r="G9">
-        <v>0.6038360195020971</v>
+        <v>0.0008284221596554788</v>
       </c>
       <c r="H9">
-        <v>1.236411406055709</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2.70637137973479</v>
+        <v>0.1349185498685266</v>
       </c>
       <c r="K9">
-        <v>0.9186492457922384</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09547315869023265</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.4847889791047493</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.999443519697763</v>
+        <v>3.99774560958781</v>
       </c>
       <c r="C10">
-        <v>0.9631515509304052</v>
+        <v>0.7040114429424591</v>
       </c>
       <c r="D10">
-        <v>0.235769289231996</v>
+        <v>0.2596910868698075</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.489517778777667</v>
+        <v>10.16008027182215</v>
       </c>
       <c r="G10">
-        <v>0.728922676903025</v>
+        <v>0.0008081682468947804</v>
       </c>
       <c r="H10">
-        <v>1.468363519036203</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3.387449583163757</v>
+        <v>0.1438984515364581</v>
       </c>
       <c r="K10">
-        <v>1.113642583646438</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1038803103410615</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.573525809726334</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.33015809545401</v>
+        <v>4.311816865489277</v>
       </c>
       <c r="C11">
-        <v>1.041779304977865</v>
+        <v>0.7665126901070778</v>
       </c>
       <c r="D11">
-        <v>0.2555602704801032</v>
+        <v>0.280936861498347</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.778908783158897</v>
+        <v>10.81022642975267</v>
       </c>
       <c r="G11">
-        <v>0.789933597890311</v>
+        <v>0.0007989745551228915</v>
       </c>
       <c r="H11">
-        <v>1.581939044324102</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3.725090710868486</v>
+        <v>0.1481882184065775</v>
       </c>
       <c r="K11">
-        <v>1.205752189842258</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.108086916940735</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.6161729652747212</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.457556336888445</v>
+        <v>4.433447123429119</v>
       </c>
       <c r="C12">
-        <v>1.072124035507557</v>
+        <v>0.7907029747315448</v>
       </c>
       <c r="D12">
-        <v>0.2632893724855734</v>
+        <v>0.2891319399038537</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.891954758180106</v>
+        <v>11.06119879012471</v>
       </c>
       <c r="G12">
-        <v>0.8137661037870885</v>
+        <v>0.000795489072481282</v>
       </c>
       <c r="H12">
-        <v>1.626370760671193</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3.858183112132892</v>
+        <v>0.1498493037686437</v>
       </c>
       <c r="K12">
-        <v>1.241248745444054</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.109742274564077</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.6327098092785945</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.430014471445077</v>
+        <v>4.407124204882962</v>
       </c>
       <c r="C13">
-        <v>1.065561071921167</v>
+        <v>0.7854682537039253</v>
       </c>
       <c r="D13">
-        <v>0.261613175855544</v>
+        <v>0.2873598467227083</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.867441897855969</v>
+        <v>11.00692093731283</v>
       </c>
       <c r="G13">
-        <v>0.8085983383482613</v>
+        <v>0.0007962400360163594</v>
       </c>
       <c r="H13">
-        <v>1.616733360451533</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3.829262332778342</v>
+        <v>0.149489800223769</v>
       </c>
       <c r="K13">
-        <v>1.233574129067676</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1093828549436466</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.6291300166932459</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.340592968780527</v>
+        <v>4.321766651927192</v>
       </c>
       <c r="C14">
-        <v>1.044263532593646</v>
+        <v>0.7684917721766737</v>
       </c>
       <c r="D14">
-        <v>0.2561910352652603</v>
+        <v>0.2816079044565214</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.78813536268737</v>
+        <v>10.83077334789516</v>
       </c>
       <c r="G14">
-        <v>0.7918787839064123</v>
+        <v>0.0007986879269886756</v>
       </c>
       <c r="H14">
-        <v>1.585564192177216</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3.735926851076087</v>
+        <v>0.1483240964077979</v>
       </c>
       <c r="K14">
-        <v>1.208659311862988</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1082218059991362</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.6175253207274451</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.286116306395911</v>
+        <v>4.269848108718577</v>
       </c>
       <c r="C15">
-        <v>1.031296643443994</v>
+        <v>0.7581642879657124</v>
       </c>
       <c r="D15">
-        <v>0.2529024686606931</v>
+        <v>0.2781050487085395</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.740031112524775</v>
+        <v>10.72352559060533</v>
       </c>
       <c r="G15">
-        <v>0.7817372110389726</v>
+        <v>0.0008001865808215826</v>
       </c>
       <c r="H15">
-        <v>1.566666489997843</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3.679481455401074</v>
+        <v>0.1476150779782586</v>
       </c>
       <c r="K15">
-        <v>1.193482884218412</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1075190011692868</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.6104694918704965</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.978107222701738</v>
+        <v>3.977572885543111</v>
       </c>
       <c r="C16">
-        <v>0.9580853867562666</v>
+        <v>0.6999944807507745</v>
       </c>
       <c r="D16">
-        <v>0.234505107562029</v>
+        <v>0.2583220283029277</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.471049548487372</v>
+        <v>10.11821409651066</v>
       </c>
       <c r="G16">
-        <v>0.725029194165927</v>
+        <v>0.0008087689144330579</v>
       </c>
       <c r="H16">
-        <v>1.461124401730231</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3.366040574974932</v>
+        <v>0.1436228111661038</v>
       </c>
       <c r="K16">
-        <v>1.107701691504033</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1036136963927277</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.5707894432339486</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.792509460469375</v>
+        <v>3.802596626611148</v>
       </c>
       <c r="C17">
-        <v>0.9140465704872156</v>
+        <v>0.6651347371184499</v>
       </c>
       <c r="D17">
-        <v>0.2235682665023404</v>
+        <v>0.246422639094277</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.311438437981252</v>
+        <v>9.754498158978095</v>
       </c>
       <c r="G17">
-        <v>0.6913810992943183</v>
+        <v>0.000814034453179513</v>
       </c>
       <c r="H17">
-        <v>1.398610592170655</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3.181642839911206</v>
+        <v>0.1412308500877479</v>
       </c>
       <c r="K17">
-        <v>1.056031067054747</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1013207032849408</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.547070118163667</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.686857917401881</v>
+        <v>3.703411328347784</v>
       </c>
       <c r="C18">
-        <v>0.8890000511363496</v>
+        <v>0.645358773588498</v>
       </c>
       <c r="D18">
-        <v>0.2173883371752794</v>
+        <v>0.2396571824478571</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.221415293122902</v>
+        <v>9.54785458427753</v>
       </c>
       <c r="G18">
-        <v>0.6724043634360442</v>
+        <v>0.000817065401734312</v>
       </c>
       <c r="H18">
-        <v>1.363393894528471</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.078107999460215</v>
+        <v>0.1398738301884244</v>
       </c>
       <c r="K18">
-        <v>1.026622973884614</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1000372887493768</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.5336379135963938</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.651263278236115</v>
+        <v>3.670067194508079</v>
       </c>
       <c r="C19">
-        <v>0.8805651468402118</v>
+        <v>0.6387075381248053</v>
       </c>
       <c r="D19">
-        <v>0.2153134267412184</v>
+        <v>0.2373793035879146</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.191223215114974</v>
+        <v>9.478305784467238</v>
       </c>
       <c r="G19">
-        <v>0.6660401936267419</v>
+        <v>0.0008180922238309042</v>
       </c>
       <c r="H19">
-        <v>1.351590109312383</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3.04345506103985</v>
+        <v>0.1394173924013238</v>
       </c>
       <c r="K19">
-        <v>1.016716015946329</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09960862950961769</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.5291245147271511</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.812150044887915</v>
+        <v>3.821069553821246</v>
       </c>
       <c r="C20">
-        <v>0.9187044481618614</v>
+        <v>0.6688165917088895</v>
       </c>
       <c r="D20">
-        <v>0.2247206933551382</v>
+        <v>0.2476810199976285</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.328240696757888</v>
+        <v>9.792946501704392</v>
       </c>
       <c r="G20">
-        <v>0.6949231087215111</v>
+        <v>0.0008134737305604642</v>
       </c>
       <c r="H20">
-        <v>1.405187037854859</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3.201003141539871</v>
+        <v>0.1414834875333923</v>
       </c>
       <c r="K20">
-        <v>1.061498434485088</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1015610770317608</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.5495728953946895</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.366795483337796</v>
+        <v>4.346761203779522</v>
       </c>
       <c r="C21">
-        <v>1.050502514212468</v>
+        <v>0.7734631669728458</v>
       </c>
       <c r="D21">
-        <v>0.2577767099094217</v>
+        <v>0.2832930887786773</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.811329535171524</v>
+        <v>10.88237557221152</v>
       </c>
       <c r="G21">
-        <v>0.7967686593475065</v>
+        <v>0.0007979690924675783</v>
       </c>
       <c r="H21">
-        <v>1.594678267171062</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3.76318778896524</v>
+        <v>0.1486654332240143</v>
       </c>
       <c r="K21">
-        <v>1.215959489491837</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1085610744333891</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.6209228631484223</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.742190506368388</v>
+        <v>4.706317457182649</v>
       </c>
       <c r="C22">
-        <v>1.140047143593904</v>
+        <v>0.8449576911624206</v>
       </c>
       <c r="D22">
-        <v>0.2807925282075558</v>
+        <v>0.3074566003882353</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.147672319780185</v>
+        <v>11.62269153710338</v>
       </c>
       <c r="G22">
-        <v>0.8676722572383966</v>
+        <v>0.0007878082825031518</v>
       </c>
       <c r="H22">
-        <v>1.726993385130456</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.162027340504821</v>
+        <v>0.1535772276352105</v>
       </c>
       <c r="K22">
-        <v>1.320587787494844</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1135042206580437</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.6698474939735277</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.54047967722272</v>
+        <v>4.512790005430645</v>
       </c>
       <c r="C23">
-        <v>1.091893605340942</v>
+        <v>0.8064802481175093</v>
       </c>
       <c r="D23">
-        <v>0.2683541434357295</v>
+        <v>0.2944686368695386</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.966004160841777</v>
+        <v>11.22468228411128</v>
       </c>
       <c r="G23">
-        <v>0.8293767777466883</v>
+        <v>0.0007932364376206537</v>
       </c>
       <c r="H23">
-        <v>1.655492907066005</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3.945760004100904</v>
+        <v>0.1509330142979231</v>
       </c>
       <c r="K23">
-        <v>1.264358042176909</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1108294475438427</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.6435030847404875</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.803267294201873</v>
+        <v>3.812713580102923</v>
       </c>
       <c r="C24">
-        <v>0.9165977833468446</v>
+        <v>0.6671512054791719</v>
       </c>
       <c r="D24">
-        <v>0.2241993495310481</v>
+        <v>0.2471118722669416</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.320639025474037</v>
+        <v>9.775556396382058</v>
       </c>
       <c r="G24">
-        <v>0.6933206299515717</v>
+        <v>0.0008137272211337576</v>
       </c>
       <c r="H24">
-        <v>1.402211592766847</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3.19224271846538</v>
+        <v>0.1413692141328902</v>
       </c>
       <c r="K24">
-        <v>1.059025718471929</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1014522960316313</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.548440757638339</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.049104780302855</v>
+        <v>3.112106933757275</v>
       </c>
       <c r="C25">
-        <v>0.7380838469773892</v>
+        <v>0.52711024910775</v>
       </c>
       <c r="D25">
-        <v>0.1807009589928725</v>
+        <v>0.1989691383314351</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.691139060668831</v>
+        <v>8.308028281802194</v>
       </c>
       <c r="G25">
-        <v>0.5606576696033585</v>
+        <v>0.0008359384222920951</v>
       </c>
       <c r="H25">
-        <v>1.156691018196881</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2.473810896511054</v>
+        <v>0.1317519369209315</v>
       </c>
       <c r="K25">
-        <v>0.8491661253580389</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09267299261814088</v>
       </c>
       <c r="M25">
+        <v>0.4537906784763095</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.630425984042461</v>
+        <v>0.621441737636502</v>
       </c>
       <c r="C2">
-        <v>0.430064236296289</v>
+        <v>0.07463033308378897</v>
       </c>
       <c r="D2">
-        <v>0.1652528400506981</v>
+        <v>0.07236990378370933</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7.286045443307529</v>
+        <v>0.3473030539438184</v>
       </c>
       <c r="G2">
-        <v>0.0008525939415755319</v>
+        <v>0.2416013103232899</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2215875075796703</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1250596844023946</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5987588322063573</v>
       </c>
       <c r="L2">
-        <v>0.08713541722273987</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3891186339286463</v>
+        <v>2.789945228945129</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.5767589247884186</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9257197033805795</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.320227578323227</v>
+        <v>0.5433240138949031</v>
       </c>
       <c r="C3">
-        <v>0.3669933877716574</v>
+        <v>0.07221274379936204</v>
       </c>
       <c r="D3">
-        <v>0.1431630002438311</v>
+        <v>0.0640022919685137</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.62043936700428</v>
+        <v>0.3268475681727807</v>
       </c>
       <c r="G3">
-        <v>0.000864153598741755</v>
+        <v>0.2298024107736154</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2210667360864278</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1206829396780016</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5293655933769941</v>
       </c>
       <c r="L3">
-        <v>0.08387195821470073</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3477155258195239</v>
+        <v>2.377473857681139</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.6153590733918857</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8993018502943215</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.136372008766728</v>
+        <v>0.4952292178231517</v>
       </c>
       <c r="C4">
-        <v>0.3293003284715041</v>
+        <v>0.07071239494796799</v>
       </c>
       <c r="D4">
-        <v>0.1298856153235306</v>
+        <v>0.0588419303894625</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6.222417254176747</v>
+        <v>0.3149379166787085</v>
       </c>
       <c r="G4">
-        <v>0.000871408953720213</v>
+        <v>0.2231284183524238</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2211053057183889</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1180507331984693</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4865419173720511</v>
       </c>
       <c r="L4">
-        <v>0.0820850879817101</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3232954500027319</v>
+        <v>2.132570984743651</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.6399723204339263</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8850337983003129</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.062926663159146</v>
+        <v>0.4755963197850974</v>
       </c>
       <c r="C5">
-        <v>0.3141607787580938</v>
+        <v>0.07009780006844579</v>
       </c>
       <c r="D5">
-        <v>0.1245351142461004</v>
+        <v>0.0567333096121061</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>6.062550721038747</v>
+        <v>0.3102387071925179</v>
       </c>
       <c r="G5">
-        <v>0.0008744083224114631</v>
+        <v>0.2205434806095923</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2212077633861753</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1169889143632545</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4690376281788673</v>
       </c>
       <c r="L5">
-        <v>0.0814082530302187</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.313570348697283</v>
+        <v>2.03451906026352</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.6502270694572747</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8796849109645564</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.050815319008166</v>
+        <v>0.4723342103956156</v>
       </c>
       <c r="C6">
-        <v>0.3116591351585498</v>
+        <v>0.06999557629969644</v>
       </c>
       <c r="D6">
-        <v>0.1236499786294161</v>
+        <v>0.05638282687024798</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>6.03613617669626</v>
+        <v>0.3094674488218487</v>
       </c>
       <c r="G6">
-        <v>0.0008749090323943102</v>
+        <v>0.2201221496528234</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2212299205774571</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1168131712691931</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4661278593225404</v>
       </c>
       <c r="L6">
-        <v>0.08129887766677513</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3119684718281661</v>
+        <v>2.018333767625137</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.6519432925385051</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8788241289595646</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.135375747240687</v>
+        <v>0.4949645804630762</v>
       </c>
       <c r="C7">
-        <v>0.3290953062011113</v>
+        <v>0.07070411822043354</v>
       </c>
       <c r="D7">
-        <v>0.1298132277611472</v>
+        <v>0.05881351607388297</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6.220252239486939</v>
+        <v>0.3148739296649978</v>
       </c>
       <c r="G7">
-        <v>0.0008714492271887965</v>
+        <v>0.2230930223935559</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2211063405947655</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1180363730846246</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4863060630835037</v>
       </c>
       <c r="L7">
-        <v>0.08207575612056672</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3231634095762814</v>
+        <v>2.131241976461951</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.6401097162361826</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8849598092703843</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.521980960556903</v>
+        <v>0.5945331079741152</v>
       </c>
       <c r="C8">
-        <v>0.408078206495702</v>
+        <v>0.07380058285038871</v>
       </c>
       <c r="D8">
-        <v>0.1575694780500498</v>
+        <v>0.06948942278578585</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>7.054109005511606</v>
+        <v>0.3401092172694575</v>
       </c>
       <c r="G8">
-        <v>0.0008565489515274812</v>
+        <v>0.2374091938226854</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2213314886986382</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1235372067946336</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5748775572194091</v>
       </c>
       <c r="L8">
-        <v>0.0859631114834869</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3746186808902507</v>
+        <v>2.64576184529308</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.5898759078118747</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9161896538540901</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.342041454610921</v>
+        <v>0.7888028334886314</v>
       </c>
       <c r="C9">
-        <v>0.5731783214699249</v>
+        <v>0.07970285349331618</v>
       </c>
       <c r="D9">
-        <v>0.2148696441227855</v>
+        <v>0.09024676906198437</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.791857632957232</v>
+        <v>0.395214217273768</v>
       </c>
       <c r="G9">
-        <v>0.0008284221596554788</v>
+        <v>0.270437954694863</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2247786944515582</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1349185498685266</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.746792661778386</v>
       </c>
       <c r="L9">
-        <v>0.09547315869023265</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4847889791047493</v>
+        <v>3.740180385074623</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4988274365626637</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.9941729730354183</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.99774560958781</v>
+        <v>0.9309845945258814</v>
       </c>
       <c r="C10">
-        <v>0.7040114429424591</v>
+        <v>0.0838611795499915</v>
       </c>
       <c r="D10">
-        <v>0.2596910868698075</v>
+        <v>0.1053879897892216</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.16008027182215</v>
+        <v>0.4398306222770287</v>
       </c>
       <c r="G10">
-        <v>0.0008081682468947804</v>
+        <v>0.2983826118912134</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2293883044710014</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1438984515364581</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.871893739345353</v>
       </c>
       <c r="L10">
-        <v>0.1038803103410615</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.573525809726334</v>
+        <v>4.629710428034315</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.4367807874595506</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.063583519849772</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.311816865489277</v>
+        <v>0.9955456085759522</v>
       </c>
       <c r="C11">
-        <v>0.7665126901070778</v>
+        <v>0.0856917672731754</v>
       </c>
       <c r="D11">
-        <v>0.280936861498347</v>
+        <v>0.1122505890634216</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.81022642975267</v>
+        <v>0.4612029320317461</v>
       </c>
       <c r="G11">
-        <v>0.0007989745551228915</v>
+        <v>0.3120618713591625</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2319965006457352</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1481882184065775</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.92849413815091</v>
       </c>
       <c r="L11">
-        <v>0.108086916940735</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6161729652747212</v>
+        <v>5.063071700986953</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4096689949821206</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.098273704919848</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.433447123429119</v>
+        <v>1.019974070275481</v>
       </c>
       <c r="C12">
-        <v>0.7907029747315448</v>
+        <v>0.08637363977423718</v>
       </c>
       <c r="D12">
-        <v>0.2891319399038537</v>
+        <v>0.1148452696933049</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.06119879012471</v>
+        <v>0.4694678340050302</v>
       </c>
       <c r="G12">
-        <v>0.000795489072481282</v>
+        <v>0.3173971388377623</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2330632767496752</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1498493037686437</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9498758647195586</v>
       </c>
       <c r="L12">
-        <v>0.109742274564077</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6327098092785945</v>
+        <v>5.232446824029282</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.399567353745037</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.111904122195853</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.407124204882962</v>
+        <v>1.014713884285726</v>
       </c>
       <c r="C13">
-        <v>0.7854682537039253</v>
+        <v>0.08622733867518662</v>
       </c>
       <c r="D13">
-        <v>0.2873598467227083</v>
+        <v>0.1142866471882513</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.00692093731283</v>
+        <v>0.4676799092071633</v>
       </c>
       <c r="G13">
-        <v>0.0007962400360163594</v>
+        <v>0.3162409065134568</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2328299135436112</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.149489800223769</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9452733684153429</v>
       </c>
       <c r="L13">
-        <v>0.1093828549436466</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6291300166932459</v>
+        <v>5.19571271399515</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.401735514904022</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.10894579516301</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.321766651927192</v>
+        <v>0.9975557616561446</v>
       </c>
       <c r="C14">
-        <v>0.7684917721766737</v>
+        <v>0.08574810959201074</v>
       </c>
       <c r="D14">
-        <v>0.2816079044565214</v>
+        <v>0.1124641390159979</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.83077334789516</v>
+        <v>0.4618793445269631</v>
       </c>
       <c r="G14">
-        <v>0.0007986879269886756</v>
+        <v>0.312497594919833</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2320826453328522</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1483240964077979</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.9302543114863795</v>
       </c>
       <c r="L14">
-        <v>0.1082218059991362</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6175253207274451</v>
+        <v>5.076892955873433</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.4088345946613545</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.099384900606225</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.269848108718577</v>
+        <v>0.987043289110261</v>
       </c>
       <c r="C15">
-        <v>0.7581642879657124</v>
+        <v>0.08545300452510673</v>
       </c>
       <c r="D15">
-        <v>0.2781050487085395</v>
+        <v>0.1113472586604303</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.72352559060533</v>
+        <v>0.4583492303497962</v>
       </c>
       <c r="G15">
-        <v>0.0008001865808215826</v>
+        <v>0.3102254438627767</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2316354003931309</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1476150779782586</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.9210477220690336</v>
       </c>
       <c r="L15">
-        <v>0.1075190011692868</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6104694918704965</v>
+        <v>5.004838208462274</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.413204606941715</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.093594384175418</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.977572885543111</v>
+        <v>0.9267628354338058</v>
       </c>
       <c r="C16">
-        <v>0.6999944807507745</v>
+        <v>0.0837401148989585</v>
       </c>
       <c r="D16">
-        <v>0.2583220283029277</v>
+        <v>0.1049389647892554</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.11821409651066</v>
+        <v>0.4384569412428405</v>
       </c>
       <c r="G16">
-        <v>0.0008087689144330579</v>
+        <v>0.2975094301858832</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2292286052018397</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1436228111661038</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8681880002515641</v>
       </c>
       <c r="L16">
-        <v>0.1036136963927277</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5707894432339486</v>
+        <v>4.602057613710173</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.4385754465925125</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.061382915609016</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.802596626611148</v>
+        <v>0.8897512592838552</v>
       </c>
       <c r="C17">
-        <v>0.6651347371184499</v>
+        <v>0.08267206287338524</v>
       </c>
       <c r="D17">
-        <v>0.246422639094277</v>
+        <v>0.1010009933478955</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.754498158978095</v>
+        <v>0.4265406334782327</v>
       </c>
       <c r="G17">
-        <v>0.000814034453179513</v>
+        <v>0.2899670647430241</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2278868582373335</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1412308500877479</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8356768577469325</v>
       </c>
       <c r="L17">
-        <v>0.1013207032849408</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.547070118163667</v>
+        <v>4.363037613969396</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.4544285069885472</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.042450956683723</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.703411328347784</v>
+        <v>0.868452279500076</v>
       </c>
       <c r="C18">
-        <v>0.645358773588498</v>
+        <v>0.08205218677845494</v>
       </c>
       <c r="D18">
-        <v>0.2396571824478571</v>
+        <v>0.09873363693422732</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.54785458427753</v>
+        <v>0.4197868424163218</v>
       </c>
       <c r="G18">
-        <v>0.000817065401734312</v>
+        <v>0.2857188364491421</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2271628768342708</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1398738301884244</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8169488115952959</v>
       </c>
       <c r="L18">
-        <v>0.1000372887493768</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5336379135963938</v>
+        <v>4.22817835635648</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.4636513130960651</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.031851913096972</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.670067194508079</v>
+        <v>0.8612389854837943</v>
       </c>
       <c r="C19">
-        <v>0.6387075381248053</v>
+        <v>0.08184141943491596</v>
       </c>
       <c r="D19">
-        <v>0.2373793035879146</v>
+        <v>0.09796555657858619</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.478305784467238</v>
+        <v>0.4175168463974757</v>
       </c>
       <c r="G19">
-        <v>0.0008180922238309042</v>
+        <v>0.2842954506772273</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2269257903200952</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1394173924013238</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.8106031013508357</v>
       </c>
       <c r="L19">
-        <v>0.09960862950961769</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5291245147271511</v>
+        <v>4.182937148781605</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.4667917935096417</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.028311780554731</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.821069553821246</v>
+        <v>0.8936923448964649</v>
       </c>
       <c r="C20">
-        <v>0.6688165917088895</v>
+        <v>0.08278635070362128</v>
       </c>
       <c r="D20">
-        <v>0.2476810199976285</v>
+        <v>0.1014204415866757</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.792946501704392</v>
+        <v>0.4277986637513962</v>
       </c>
       <c r="G20">
-        <v>0.0008134737305604642</v>
+        <v>0.2907605440777843</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2280247082939439</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1414834875333923</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.8391407176676182</v>
       </c>
       <c r="L20">
-        <v>0.1015610770317608</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5495728953946895</v>
+        <v>4.388203376530058</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4527300641418055</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.044435955534425</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.346761203779522</v>
+        <v>1.002596072594145</v>
       </c>
       <c r="C21">
-        <v>0.7734631669728458</v>
+        <v>0.08588920220497442</v>
       </c>
       <c r="D21">
-        <v>0.2832930887786773</v>
+        <v>0.1129995677339508</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.88237557221152</v>
+        <v>0.4635783051760427</v>
       </c>
       <c r="G21">
-        <v>0.0007979690924675783</v>
+        <v>0.3135927427320127</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2322999415860352</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1486654332240143</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.9346672449086668</v>
       </c>
       <c r="L21">
-        <v>0.1085610744333891</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6209228631484223</v>
+        <v>5.111639428689799</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4067449095167452</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.102179361454716</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.706317457182649</v>
+        <v>1.073655339424533</v>
       </c>
       <c r="C22">
-        <v>0.8449576911624206</v>
+        <v>0.08784929283385878</v>
       </c>
       <c r="D22">
-        <v>0.3074566003882353</v>
+        <v>0.1205433037996926</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.62269153710338</v>
+        <v>0.4879726935040622</v>
       </c>
       <c r="G22">
-        <v>0.0007878082825031518</v>
+        <v>0.3294290542329463</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.235558211909904</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1535772276352105</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.996792890211907</v>
       </c>
       <c r="L22">
-        <v>0.1135042206580437</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6698474939735277</v>
+        <v>5.615959335698847</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3776543293413193</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.142823702250269</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.512790005430645</v>
+        <v>1.035741553897196</v>
       </c>
       <c r="C23">
-        <v>0.8064802481175093</v>
+        <v>0.08681040284206176</v>
       </c>
       <c r="D23">
-        <v>0.2944686368695386</v>
+        <v>0.1165194519646064</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.22468228411128</v>
+        <v>0.4748542612611573</v>
       </c>
       <c r="G23">
-        <v>0.0007932364376206537</v>
+        <v>0.3208872741289923</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2337747309899783</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1509330142979231</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9636664813407947</v>
       </c>
       <c r="L23">
-        <v>0.1108294475438427</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6435030847404875</v>
+        <v>5.343441753192337</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3930909863407228</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.120848217540271</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.812713580102923</v>
+        <v>0.8919106438880817</v>
       </c>
       <c r="C24">
-        <v>0.6671512054791719</v>
+        <v>0.08273469918000131</v>
       </c>
       <c r="D24">
-        <v>0.2471118722669416</v>
+        <v>0.1012308194887481</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.775556396382058</v>
+        <v>0.4272296072146844</v>
       </c>
       <c r="G24">
-        <v>0.0008137272211337576</v>
+        <v>0.2904015392278367</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2279622390366853</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1413692141328902</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.837574821206033</v>
       </c>
       <c r="L24">
-        <v>0.1014522960316313</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.548440757638339</v>
+        <v>4.376818053873635</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4534975920510762</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.043537652642527</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.112106933757275</v>
+        <v>0.7363458852365454</v>
       </c>
       <c r="C25">
-        <v>0.52711024910775</v>
+        <v>0.07813107793254659</v>
       </c>
       <c r="D25">
-        <v>0.1989691383314351</v>
+        <v>0.08465024568243251</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.308028281802194</v>
+        <v>0.3796366109940053</v>
       </c>
       <c r="G25">
-        <v>0.0008359384222920951</v>
+        <v>0.2609085069165715</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2235003224769017</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1317519369209315</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7004844110561237</v>
       </c>
       <c r="L25">
-        <v>0.09267299261814088</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4537906784763095</v>
+        <v>3.431944091542107</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.5226290699246343</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.9710981305615434</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.621441737636502</v>
+        <v>0.1973374482087138</v>
       </c>
       <c r="C2">
-        <v>0.07463033308378897</v>
+        <v>0.06454707696524764</v>
       </c>
       <c r="D2">
-        <v>0.07236990378370933</v>
+        <v>0.02648139415447304</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3473030539438184</v>
+        <v>0.5088516510678858</v>
       </c>
       <c r="G2">
-        <v>0.2416013103232899</v>
+        <v>0.3506904785613827</v>
       </c>
       <c r="H2">
-        <v>0.2215875075796703</v>
+        <v>0.5205324219275766</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5987588322063573</v>
+        <v>0.1857334543312277</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.789945228945129</v>
+        <v>0.8891921518417263</v>
       </c>
       <c r="N2">
-        <v>0.5767589247884186</v>
+        <v>1.254872198835618</v>
       </c>
       <c r="O2">
-        <v>0.9257197033805795</v>
+        <v>1.679148079589524</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5433240138949031</v>
+        <v>0.1727343585085066</v>
       </c>
       <c r="C3">
-        <v>0.07221274379936204</v>
+        <v>0.0635243486311623</v>
       </c>
       <c r="D3">
-        <v>0.0640022919685137</v>
+        <v>0.02367719059892437</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3268475681727807</v>
+        <v>0.5072837530677674</v>
       </c>
       <c r="G3">
-        <v>0.2298024107736154</v>
+        <v>0.3505277101394881</v>
       </c>
       <c r="H3">
-        <v>0.2210667360864278</v>
+        <v>0.5234837231719567</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5293655933769941</v>
+        <v>0.1628532198281789</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.377473857681139</v>
+        <v>0.7915956472265862</v>
       </c>
       <c r="N3">
-        <v>0.6153590733918857</v>
+        <v>1.270232382984935</v>
       </c>
       <c r="O3">
-        <v>0.8993018502943215</v>
+        <v>1.684763970045054</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4952292178231517</v>
+        <v>0.1575943198039909</v>
       </c>
       <c r="C4">
-        <v>0.07071239494796799</v>
+        <v>0.06289570793554589</v>
       </c>
       <c r="D4">
-        <v>0.0588419303894625</v>
+        <v>0.02194330296029534</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3149379166787085</v>
+        <v>0.5066281400920474</v>
       </c>
       <c r="G4">
-        <v>0.2231284183524238</v>
+        <v>0.3506671039479983</v>
       </c>
       <c r="H4">
-        <v>0.2211053057183889</v>
+        <v>0.5255064205809461</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4865419173720511</v>
+        <v>0.1487305773582079</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.132570984743651</v>
+        <v>0.7321862908476504</v>
       </c>
       <c r="N4">
-        <v>0.6399723204339263</v>
+        <v>1.280124697804544</v>
       </c>
       <c r="O4">
-        <v>0.8850337983003129</v>
+        <v>1.689152838062157</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4755963197850974</v>
+        <v>0.1514166777537156</v>
       </c>
       <c r="C5">
-        <v>0.07009780006844579</v>
+        <v>0.0626394078455732</v>
       </c>
       <c r="D5">
-        <v>0.0567333096121061</v>
+        <v>0.02123373392115013</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3102387071925179</v>
+        <v>0.506438206407104</v>
       </c>
       <c r="G5">
-        <v>0.2205434806095923</v>
+        <v>0.3507840259144857</v>
       </c>
       <c r="H5">
-        <v>0.2212077633861753</v>
+        <v>0.5263836815138561</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4690376281788673</v>
+        <v>0.1429573486809943</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.03451906026352</v>
+        <v>0.7081002974538961</v>
       </c>
       <c r="N5">
-        <v>0.6502270694572747</v>
+        <v>1.284271791199746</v>
       </c>
       <c r="O5">
-        <v>0.8796849109645564</v>
+        <v>1.691177825620514</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4723342103956156</v>
+        <v>0.1503904195227079</v>
       </c>
       <c r="C6">
-        <v>0.06999557629969644</v>
+        <v>0.0625968433204136</v>
       </c>
       <c r="D6">
-        <v>0.05638282687024798</v>
+        <v>0.02111573092899732</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3094674488218487</v>
+        <v>0.506411333269412</v>
       </c>
       <c r="G6">
-        <v>0.2201221496528234</v>
+        <v>0.3508070698037642</v>
       </c>
       <c r="H6">
-        <v>0.2212299205774571</v>
+        <v>0.5265325520397894</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4661278593225404</v>
+        <v>0.1419976274909658</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.018333767625137</v>
+        <v>0.7041081470602819</v>
       </c>
       <c r="N6">
-        <v>0.6519432925385051</v>
+        <v>1.284967411162619</v>
       </c>
       <c r="O6">
-        <v>0.8788241289595646</v>
+        <v>1.691528354982424</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4949645804630762</v>
+        <v>0.157511037495496</v>
       </c>
       <c r="C7">
-        <v>0.07070411822043354</v>
+        <v>0.06289225182339919</v>
       </c>
       <c r="D7">
-        <v>0.05881351607388297</v>
+        <v>0.02193374553371541</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3148739296649978</v>
+        <v>0.5066252658437804</v>
       </c>
       <c r="G7">
-        <v>0.2230930223935559</v>
+        <v>0.3506684374708655</v>
       </c>
       <c r="H7">
-        <v>0.2211063405947655</v>
+        <v>0.5255180369985695</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4863060630835037</v>
+        <v>0.1486527903633998</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.131241976461951</v>
+        <v>0.7318609649862111</v>
       </c>
       <c r="N7">
-        <v>0.6401097162361826</v>
+        <v>1.280180157783374</v>
       </c>
       <c r="O7">
-        <v>0.8849598092703843</v>
+        <v>1.689179190301573</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5945331079741152</v>
+        <v>0.1888615816316701</v>
       </c>
       <c r="C8">
-        <v>0.07380058285038871</v>
+        <v>0.06419460977469527</v>
       </c>
       <c r="D8">
-        <v>0.06948942278578585</v>
+        <v>0.02551704183539982</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3401092172694575</v>
+        <v>0.5082473120274997</v>
       </c>
       <c r="G8">
-        <v>0.2374091938226854</v>
+        <v>0.3505846420168481</v>
       </c>
       <c r="H8">
-        <v>0.2213314886986382</v>
+        <v>0.5215063480093747</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5748775572194091</v>
+        <v>0.1778600146948435</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.64576184529308</v>
+        <v>0.8554303969021362</v>
       </c>
       <c r="N8">
-        <v>0.5898759078118747</v>
+        <v>1.260072658886677</v>
       </c>
       <c r="O8">
-        <v>0.9161896538540901</v>
+        <v>1.680889161786112</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7888028334886314</v>
+        <v>0.2500535586109436</v>
       </c>
       <c r="C9">
-        <v>0.07970285349331618</v>
+        <v>0.0667411532432638</v>
       </c>
       <c r="D9">
-        <v>0.09024676906198437</v>
+        <v>0.03244619269332816</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.395214217273768</v>
+        <v>0.513864974203365</v>
       </c>
       <c r="G9">
-        <v>0.270437954694863</v>
+        <v>0.3523228183286662</v>
       </c>
       <c r="H9">
-        <v>0.2247786944515582</v>
+        <v>0.5153086769171153</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.746792661778386</v>
+        <v>0.2345283494013159</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.740180385074623</v>
+        <v>1.102113959300965</v>
       </c>
       <c r="N9">
-        <v>0.4988274365626637</v>
+        <v>1.224302244889725</v>
       </c>
       <c r="O9">
-        <v>0.9941729730354183</v>
+        <v>1.672100535724184</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9309845945258814</v>
+        <v>0.2948148140778528</v>
       </c>
       <c r="C10">
-        <v>0.0838611795499915</v>
+        <v>0.06860511841703243</v>
       </c>
       <c r="D10">
-        <v>0.1053879897892216</v>
+        <v>0.03747562681186878</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4398306222770287</v>
+        <v>0.5194796075458186</v>
       </c>
       <c r="G10">
-        <v>0.2983826118912134</v>
+        <v>0.3547653266031574</v>
       </c>
       <c r="H10">
-        <v>0.2293883044710014</v>
+        <v>0.5117708506320753</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.871893739345353</v>
+        <v>0.2757705938645358</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.629710428034315</v>
+        <v>1.2864171275899</v>
       </c>
       <c r="N10">
-        <v>0.4367807874595506</v>
+        <v>1.200254585905014</v>
       </c>
       <c r="O10">
-        <v>1.063583519849772</v>
+        <v>1.670204420159081</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9955456085759522</v>
+        <v>0.3151307863412853</v>
       </c>
       <c r="C11">
-        <v>0.0856917672731754</v>
+        <v>0.0694510507959194</v>
       </c>
       <c r="D11">
-        <v>0.1122505890634216</v>
+        <v>0.03974993778005853</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4612029320317461</v>
+        <v>0.5223572868608599</v>
       </c>
       <c r="G11">
-        <v>0.3120618713591625</v>
+        <v>0.3561308337237676</v>
       </c>
       <c r="H11">
-        <v>0.2319965006457352</v>
+        <v>0.5103815317605722</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.92849413815091</v>
+        <v>0.2944431899662732</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.063071700986953</v>
+        <v>1.371017474301098</v>
       </c>
       <c r="N11">
-        <v>0.4096689949821206</v>
+        <v>1.189799852468871</v>
       </c>
       <c r="O11">
-        <v>1.098273704919848</v>
+        <v>1.670334128177615</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.019974070275481</v>
+        <v>0.3228168129561766</v>
       </c>
       <c r="C12">
-        <v>0.08637363977423718</v>
+        <v>0.06977104953577395</v>
       </c>
       <c r="D12">
-        <v>0.1148452696933049</v>
+        <v>0.0406091616600861</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4694678340050302</v>
+        <v>0.5234935278167896</v>
       </c>
       <c r="G12">
-        <v>0.3173971388377623</v>
+        <v>0.3566845866557742</v>
       </c>
       <c r="H12">
-        <v>0.2330632767496752</v>
+        <v>0.5098870429047508</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9498758647195586</v>
+        <v>0.3015007997066732</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.232446824029282</v>
+        <v>1.403169930308678</v>
       </c>
       <c r="N12">
-        <v>0.399567353745037</v>
+        <v>1.185910677776325</v>
       </c>
       <c r="O12">
-        <v>1.111904122195853</v>
+        <v>1.670526054501352</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.014713884285726</v>
+        <v>0.3211618182771758</v>
       </c>
       <c r="C13">
-        <v>0.08622733867518662</v>
+        <v>0.06970214789696172</v>
       </c>
       <c r="D13">
-        <v>0.1142866471882513</v>
+        <v>0.04042420257691504</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4676799092071633</v>
+        <v>0.5232467487365184</v>
       </c>
       <c r="G13">
-        <v>0.3162409065134568</v>
+        <v>0.3565636940437003</v>
       </c>
       <c r="H13">
-        <v>0.2328299135436112</v>
+        <v>0.5099921342318368</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9452733684153429</v>
+        <v>0.2999814171850232</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.19571271399515</v>
+        <v>1.396240047108449</v>
       </c>
       <c r="N13">
-        <v>0.401735514904022</v>
+        <v>1.186745174680802</v>
       </c>
       <c r="O13">
-        <v>1.10894579516301</v>
+        <v>1.670478366304195</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9975557616561446</v>
+        <v>0.3157632676799267</v>
       </c>
       <c r="C14">
-        <v>0.08574810959201074</v>
+        <v>0.06947738433796502</v>
       </c>
       <c r="D14">
-        <v>0.1124641390159979</v>
+        <v>0.03982066719476052</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4618793445269631</v>
+        <v>0.5224498336356618</v>
       </c>
       <c r="G14">
-        <v>0.312497594919833</v>
+        <v>0.3561756560130789</v>
       </c>
       <c r="H14">
-        <v>0.2320826453328522</v>
+        <v>0.5103402163893236</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9302543114863795</v>
+        <v>0.2950240933628834</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.076892955873433</v>
+        <v>1.373660308638023</v>
       </c>
       <c r="N14">
-        <v>0.4088345946613545</v>
+        <v>1.189478488061764</v>
       </c>
       <c r="O14">
-        <v>1.099384900606225</v>
+        <v>1.670347055264358</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.987043289110261</v>
+        <v>0.3124555465726075</v>
       </c>
       <c r="C15">
-        <v>0.08545300452510673</v>
+        <v>0.06933966471506636</v>
       </c>
       <c r="D15">
-        <v>0.1113472586604303</v>
+        <v>0.039450721253246</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4583492303497962</v>
+        <v>0.5219677592027452</v>
       </c>
       <c r="G15">
-        <v>0.3102254438627767</v>
+        <v>0.3559427488487472</v>
       </c>
       <c r="H15">
-        <v>0.2316354003931309</v>
+        <v>0.510557543287959</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9210477220690336</v>
+        <v>0.2919858416359773</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.004838208462274</v>
+        <v>1.359844898480262</v>
       </c>
       <c r="N15">
-        <v>0.413204606941715</v>
+        <v>1.191161815587936</v>
       </c>
       <c r="O15">
-        <v>1.093594384175418</v>
+        <v>1.670285225039947</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9267628354338058</v>
+        <v>0.2934861414533145</v>
       </c>
       <c r="C16">
-        <v>0.0837401148989585</v>
+        <v>0.06854979027735908</v>
       </c>
       <c r="D16">
-        <v>0.1049389647892554</v>
+        <v>0.03732671704754864</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4384569412428405</v>
+        <v>0.5192980551364954</v>
       </c>
       <c r="G16">
-        <v>0.2975094301858832</v>
+        <v>0.3546812137186635</v>
       </c>
       <c r="H16">
-        <v>0.2292286052018397</v>
+        <v>0.5118660715970833</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8681880002515641</v>
+        <v>0.2745484645203078</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.602057613710173</v>
+        <v>1.280904170482927</v>
       </c>
       <c r="N16">
-        <v>0.4385754465925125</v>
+        <v>1.200947589512479</v>
       </c>
       <c r="O16">
-        <v>1.061382915609016</v>
+        <v>1.670215920723223</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8897512592838552</v>
+        <v>0.2818368114205612</v>
       </c>
       <c r="C17">
-        <v>0.08267206287338524</v>
+        <v>0.06806468095152951</v>
       </c>
       <c r="D17">
-        <v>0.1010009933478955</v>
+        <v>0.03602018798702744</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4265406334782327</v>
+        <v>0.5177431478743841</v>
       </c>
       <c r="G17">
-        <v>0.2899670647430241</v>
+        <v>0.3539725190816512</v>
       </c>
       <c r="H17">
-        <v>0.2278868582373335</v>
+        <v>0.512725153089022</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8356768577469325</v>
+        <v>0.26382809335405</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.363037613969396</v>
+        <v>1.232676055263752</v>
       </c>
       <c r="N17">
-        <v>0.4544285069885472</v>
+        <v>1.207075057954444</v>
       </c>
       <c r="O17">
-        <v>1.042450956683723</v>
+        <v>1.670427633442813</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.868452279500076</v>
+        <v>0.2751321144955909</v>
       </c>
       <c r="C18">
-        <v>0.08205218677845494</v>
+        <v>0.06778547417206227</v>
       </c>
       <c r="D18">
-        <v>0.09873363693422732</v>
+        <v>0.03526742969835084</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4197868424163218</v>
+        <v>0.5168792608579551</v>
       </c>
       <c r="G18">
-        <v>0.2857188364491421</v>
+        <v>0.3535888368357405</v>
       </c>
       <c r="H18">
-        <v>0.2271628768342708</v>
+        <v>0.5132399883975154</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8169488115952959</v>
+        <v>0.2576537021620737</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.22817835635648</v>
+        <v>1.205007624700002</v>
       </c>
       <c r="N18">
-        <v>0.4636513130960651</v>
+        <v>1.210645028058965</v>
       </c>
       <c r="O18">
-        <v>1.031851913096972</v>
+        <v>1.670642793852451</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8612389854837943</v>
+        <v>0.2728612959176075</v>
       </c>
       <c r="C19">
-        <v>0.08184141943491596</v>
+        <v>0.06769090936872857</v>
       </c>
       <c r="D19">
-        <v>0.09796555657858619</v>
+        <v>0.03501234087748628</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4175168463974757</v>
+        <v>0.5165919941615371</v>
       </c>
       <c r="G19">
-        <v>0.2842954506772273</v>
+        <v>0.35346303784128</v>
       </c>
       <c r="H19">
-        <v>0.2269257903200952</v>
+        <v>0.5134178613466673</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8106031013508357</v>
+        <v>0.2555617473844336</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.182937148781605</v>
+        <v>1.195651575515257</v>
       </c>
       <c r="N19">
-        <v>0.4667917935096417</v>
+        <v>1.211861589206321</v>
       </c>
       <c r="O19">
-        <v>1.028311780554731</v>
+        <v>1.670731679363499</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8936923448964649</v>
+        <v>0.2830773526214045</v>
       </c>
       <c r="C20">
-        <v>0.08278635070362128</v>
+        <v>0.06811634115298659</v>
       </c>
       <c r="D20">
-        <v>0.1014204415866757</v>
+        <v>0.03615940281229513</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4277986637513962</v>
+        <v>0.5179055184845325</v>
       </c>
       <c r="G20">
-        <v>0.2907605440777843</v>
+        <v>0.3540454825203128</v>
       </c>
       <c r="H20">
-        <v>0.2280247082939439</v>
+        <v>0.5126315587435002</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8391407176676182</v>
+        <v>0.2649701598869001</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.388203376530058</v>
+        <v>1.237802612079918</v>
       </c>
       <c r="N20">
-        <v>0.4527300641418055</v>
+        <v>1.206418056981743</v>
       </c>
       <c r="O20">
-        <v>1.044435955534425</v>
+        <v>1.670395429988261</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.002596072594145</v>
+        <v>0.317349152445928</v>
       </c>
       <c r="C21">
-        <v>0.08588920220497442</v>
+        <v>0.06954341240778916</v>
       </c>
       <c r="D21">
-        <v>0.1129995677339508</v>
+        <v>0.03999799508834201</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4635783051760427</v>
+        <v>0.5226826442128782</v>
       </c>
       <c r="G21">
-        <v>0.3135927427320127</v>
+        <v>0.3562886364485962</v>
       </c>
       <c r="H21">
-        <v>0.2322999415860352</v>
+        <v>0.5102371183904211</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9346672449086668</v>
+        <v>0.2964805447309402</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.111639428689799</v>
+        <v>1.380289317583149</v>
       </c>
       <c r="N21">
-        <v>0.4067449095167452</v>
+        <v>1.188673752246201</v>
       </c>
       <c r="O21">
-        <v>1.102179361454716</v>
+        <v>1.670381747725571</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.073655339424533</v>
+        <v>0.3397055812810947</v>
       </c>
       <c r="C22">
-        <v>0.08784929283385878</v>
+        <v>0.07047409529773319</v>
       </c>
       <c r="D22">
-        <v>0.1205433037996926</v>
+        <v>0.04249500665254402</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4879726935040622</v>
+        <v>0.5260759624230715</v>
       </c>
       <c r="G22">
-        <v>0.3294290542329463</v>
+        <v>0.3579684176979328</v>
       </c>
       <c r="H22">
-        <v>0.235558211909904</v>
+        <v>0.5088564831499411</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.996792890211907</v>
+        <v>0.3169966454649682</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.615959335698847</v>
+        <v>1.474092881939654</v>
       </c>
       <c r="N22">
-        <v>0.3776543293413193</v>
+        <v>1.17748375994215</v>
       </c>
       <c r="O22">
-        <v>1.142823702250269</v>
+        <v>1.671205262082026</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.035741553897196</v>
+        <v>0.3277775768885931</v>
       </c>
       <c r="C23">
-        <v>0.08681040284206176</v>
+        <v>0.06997757120442571</v>
       </c>
       <c r="D23">
-        <v>0.1165194519646064</v>
+        <v>0.04116339519293888</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4748542612611573</v>
+        <v>0.5242400708457495</v>
       </c>
       <c r="G23">
-        <v>0.3208872741289923</v>
+        <v>0.3570523011726152</v>
       </c>
       <c r="H23">
-        <v>0.2337747309899783</v>
+        <v>0.5095765025033074</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9636664813407947</v>
+        <v>0.3060541100483931</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.343441753192337</v>
+        <v>1.423963597032227</v>
       </c>
       <c r="N23">
-        <v>0.3930909863407228</v>
+        <v>1.183418797022338</v>
       </c>
       <c r="O23">
-        <v>1.120848217540271</v>
+        <v>1.670689526158355</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8919106438880817</v>
+        <v>0.2825165267706211</v>
       </c>
       <c r="C24">
-        <v>0.08273469918000131</v>
+        <v>0.06809298654098228</v>
       </c>
       <c r="D24">
-        <v>0.1012308194887481</v>
+        <v>0.03609646882358675</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4272296072146844</v>
+        <v>0.5178320171329318</v>
       </c>
       <c r="G24">
-        <v>0.2904015392278367</v>
+        <v>0.3540124217623202</v>
       </c>
       <c r="H24">
-        <v>0.2279622390366853</v>
+        <v>0.5126738075279178</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.837574821206033</v>
+        <v>0.2644538661622278</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.376818053873635</v>
+        <v>1.235484713873916</v>
       </c>
       <c r="N24">
-        <v>0.4534975920510762</v>
+        <v>1.206714940090945</v>
       </c>
       <c r="O24">
-        <v>1.043537652642527</v>
+        <v>1.670409698122171</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7363458852365454</v>
+        <v>0.2335324290917526</v>
       </c>
       <c r="C25">
-        <v>0.07813107793254659</v>
+        <v>0.06605329236406021</v>
       </c>
       <c r="D25">
-        <v>0.08465024568243251</v>
+        <v>0.03058232325219734</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3796366109940053</v>
+        <v>0.5120841840942276</v>
       </c>
       <c r="G25">
-        <v>0.2609085069165715</v>
+        <v>0.3516483362561544</v>
       </c>
       <c r="H25">
-        <v>0.2235003224769017</v>
+        <v>0.5168068170535989</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7004844110561237</v>
+        <v>0.2192653122546915</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.431944091542107</v>
+        <v>1.034871049881147</v>
       </c>
       <c r="N25">
-        <v>0.5226290699246343</v>
+        <v>1.23358709127733</v>
       </c>
       <c r="O25">
-        <v>0.9710981305615434</v>
+        <v>1.673677745072965</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1973374482087138</v>
+        <v>0.621441737636502</v>
       </c>
       <c r="C2">
-        <v>0.06454707696524764</v>
+        <v>0.0746303330835616</v>
       </c>
       <c r="D2">
-        <v>0.02648139415447304</v>
+        <v>0.07236990378370933</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5088516510678858</v>
+        <v>0.3473030539438042</v>
       </c>
       <c r="G2">
-        <v>0.3506904785613827</v>
+        <v>0.2416013103232899</v>
       </c>
       <c r="H2">
-        <v>0.5205324219275766</v>
+        <v>0.2215875075795566</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1857334543312277</v>
+        <v>0.5987588322062862</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8891921518417263</v>
+        <v>2.789945228945129</v>
       </c>
       <c r="N2">
-        <v>1.254872198835618</v>
+        <v>0.576758924788356</v>
       </c>
       <c r="O2">
-        <v>1.679148079589524</v>
+        <v>0.9257197033806364</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1727343585085066</v>
+        <v>0.5433240138946758</v>
       </c>
       <c r="C3">
-        <v>0.0635243486311623</v>
+        <v>0.07221274379906362</v>
       </c>
       <c r="D3">
-        <v>0.02367719059892437</v>
+        <v>0.06400229196848528</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5072837530677674</v>
+        <v>0.3268475681727807</v>
       </c>
       <c r="G3">
-        <v>0.3505277101394881</v>
+        <v>0.2298024107736083</v>
       </c>
       <c r="H3">
-        <v>0.5234837231719567</v>
+        <v>0.2210667360864278</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1628532198281789</v>
+        <v>0.5293655933770793</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7915956472265862</v>
+        <v>2.377473857681125</v>
       </c>
       <c r="N3">
-        <v>1.270232382984935</v>
+        <v>0.6153590733919416</v>
       </c>
       <c r="O3">
-        <v>1.684763970045054</v>
+        <v>0.8993018502943073</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1575943198039909</v>
+        <v>0.4952292178232796</v>
       </c>
       <c r="C4">
-        <v>0.06289570793554589</v>
+        <v>0.07071239494820247</v>
       </c>
       <c r="D4">
-        <v>0.02194330296029534</v>
+        <v>0.0588419303894625</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5066281400920474</v>
+        <v>0.3149379166787085</v>
       </c>
       <c r="G4">
-        <v>0.3506671039479983</v>
+        <v>0.2231284183523599</v>
       </c>
       <c r="H4">
-        <v>0.5255064205809461</v>
+        <v>0.2211053057182752</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1487305773582079</v>
+        <v>0.4865419173721079</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7321862908476504</v>
+        <v>2.132570984743637</v>
       </c>
       <c r="N4">
-        <v>1.280124697804544</v>
+        <v>0.6399723204339289</v>
       </c>
       <c r="O4">
-        <v>1.689152838062157</v>
+        <v>0.8850337983002703</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1514166777537156</v>
+        <v>0.4755963197850264</v>
       </c>
       <c r="C5">
-        <v>0.0626394078455732</v>
+        <v>0.07009780006821131</v>
       </c>
       <c r="D5">
-        <v>0.02123373392115013</v>
+        <v>0.05673330961198531</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.506438206407104</v>
+        <v>0.3102387071924966</v>
       </c>
       <c r="G5">
-        <v>0.3507840259144857</v>
+        <v>0.2205434806095425</v>
       </c>
       <c r="H5">
-        <v>0.5263836815138561</v>
+        <v>0.221207763386289</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1429573486809943</v>
+        <v>0.4690376281789099</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7081002974538961</v>
+        <v>2.03451906026352</v>
       </c>
       <c r="N5">
-        <v>1.284271791199746</v>
+        <v>0.6502270694572809</v>
       </c>
       <c r="O5">
-        <v>1.691177825620514</v>
+        <v>0.8796849109646274</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1503904195227079</v>
+        <v>0.4723342103954593</v>
       </c>
       <c r="C6">
-        <v>0.0625968433204136</v>
+        <v>0.06999557629940512</v>
       </c>
       <c r="D6">
-        <v>0.02111573092899732</v>
+        <v>0.05638282687021956</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.506411333269412</v>
+        <v>0.3094674488218629</v>
       </c>
       <c r="G6">
-        <v>0.3508070698037642</v>
+        <v>0.2201221496528305</v>
       </c>
       <c r="H6">
-        <v>0.5265325520397894</v>
+        <v>0.2212299205774571</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1419976274909658</v>
+        <v>0.4661278593225262</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7041081470602819</v>
+        <v>2.018333767625151</v>
       </c>
       <c r="N6">
-        <v>1.284967411162619</v>
+        <v>0.6519432925385704</v>
       </c>
       <c r="O6">
-        <v>1.691528354982424</v>
+        <v>0.8788241289595788</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.157511037495496</v>
+        <v>0.4949645804629625</v>
       </c>
       <c r="C7">
-        <v>0.06289225182339919</v>
+        <v>0.07070411822043354</v>
       </c>
       <c r="D7">
-        <v>0.02193374553371541</v>
+        <v>0.05881351607389718</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5066252658437804</v>
+        <v>0.314873929665012</v>
       </c>
       <c r="G7">
-        <v>0.3506684374708655</v>
+        <v>0.223093022393563</v>
       </c>
       <c r="H7">
-        <v>0.5255180369985695</v>
+        <v>0.2211063405947726</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1486527903633998</v>
+        <v>0.4863060630835179</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7318609649862111</v>
+        <v>2.131241976461936</v>
       </c>
       <c r="N7">
-        <v>1.280180157783374</v>
+        <v>0.6401097162361284</v>
       </c>
       <c r="O7">
-        <v>1.689179190301573</v>
+        <v>0.8849598092703843</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1888615816316701</v>
+        <v>0.5945331079740868</v>
       </c>
       <c r="C8">
-        <v>0.06419460977469527</v>
+        <v>0.07380058285045266</v>
       </c>
       <c r="D8">
-        <v>0.02551704183539982</v>
+        <v>0.06948942278582138</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5082473120274997</v>
+        <v>0.3401092172694575</v>
       </c>
       <c r="G8">
-        <v>0.3505846420168481</v>
+        <v>0.2374091938226286</v>
       </c>
       <c r="H8">
-        <v>0.5215063480093747</v>
+        <v>0.2213314886986382</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1778600146948435</v>
+        <v>0.5748775572193381</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8554303969021362</v>
+        <v>2.645761845293066</v>
       </c>
       <c r="N8">
-        <v>1.260072658886677</v>
+        <v>0.5898759078118769</v>
       </c>
       <c r="O8">
-        <v>1.680889161786112</v>
+        <v>0.9161896538540475</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2500535586109436</v>
+        <v>0.7888028334887451</v>
       </c>
       <c r="C9">
-        <v>0.0667411532432638</v>
+        <v>0.07970285349337303</v>
       </c>
       <c r="D9">
-        <v>0.03244619269332816</v>
+        <v>0.09024676906187068</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.513864974203365</v>
+        <v>0.3952142172737609</v>
       </c>
       <c r="G9">
-        <v>0.3523228183286662</v>
+        <v>0.2704379546948701</v>
       </c>
       <c r="H9">
-        <v>0.5153086769171153</v>
+        <v>0.2247786944515653</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2345283494013159</v>
+        <v>0.7467926617783291</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.102113959300965</v>
+        <v>3.740180385074595</v>
       </c>
       <c r="N9">
-        <v>1.224302244889725</v>
+        <v>0.4988274365627046</v>
       </c>
       <c r="O9">
-        <v>1.672100535724184</v>
+        <v>0.9941729730353615</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2948148140778528</v>
+        <v>0.9309845945259383</v>
       </c>
       <c r="C10">
-        <v>0.06860511841703243</v>
+        <v>0.08386117955022598</v>
       </c>
       <c r="D10">
-        <v>0.03747562681186878</v>
+        <v>0.105387989789179</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5194796075458186</v>
+        <v>0.4398306222770429</v>
       </c>
       <c r="G10">
-        <v>0.3547653266031574</v>
+        <v>0.2983826118912845</v>
       </c>
       <c r="H10">
-        <v>0.5117708506320753</v>
+        <v>0.2293883044711151</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2757705938645358</v>
+        <v>0.8718937393453814</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.2864171275899</v>
+        <v>4.629710428034301</v>
       </c>
       <c r="N10">
-        <v>1.200254585905014</v>
+        <v>0.4367807874594858</v>
       </c>
       <c r="O10">
-        <v>1.670204420159081</v>
+        <v>1.063583519849772</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3151307863412853</v>
+        <v>0.9955456085759522</v>
       </c>
       <c r="C11">
-        <v>0.0694510507959194</v>
+        <v>0.08569176727316119</v>
       </c>
       <c r="D11">
-        <v>0.03974993778005853</v>
+        <v>0.1122505890634784</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5223572868608599</v>
+        <v>0.4612029320317461</v>
       </c>
       <c r="G11">
-        <v>0.3561308337237676</v>
+        <v>0.3120618713591199</v>
       </c>
       <c r="H11">
-        <v>0.5103815317605722</v>
+        <v>0.2319965006457352</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2944431899662732</v>
+        <v>0.9284941381509668</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.371017474301098</v>
+        <v>5.063071700986967</v>
       </c>
       <c r="N11">
-        <v>1.189799852468871</v>
+        <v>0.4096689949821251</v>
       </c>
       <c r="O11">
-        <v>1.670334128177615</v>
+        <v>1.098273704919933</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3228168129561766</v>
+        <v>1.019974070275566</v>
       </c>
       <c r="C12">
-        <v>0.06977104953577395</v>
+        <v>0.08637363977430113</v>
       </c>
       <c r="D12">
-        <v>0.0406091616600861</v>
+        <v>0.1148452696934186</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5234935278167896</v>
+        <v>0.4694678340050444</v>
       </c>
       <c r="G12">
-        <v>0.3566845866557742</v>
+        <v>0.3173971388377765</v>
       </c>
       <c r="H12">
-        <v>0.5098870429047508</v>
+        <v>0.2330632767496752</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3015007997066732</v>
+        <v>0.9498758647194734</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.403169930308678</v>
+        <v>5.232446824029253</v>
       </c>
       <c r="N12">
-        <v>1.185910677776325</v>
+        <v>0.3995673537450299</v>
       </c>
       <c r="O12">
-        <v>1.670526054501352</v>
+        <v>1.111904122195796</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3211618182771758</v>
+        <v>1.014713884285555</v>
       </c>
       <c r="C13">
-        <v>0.06970214789696172</v>
+        <v>0.08622733867542109</v>
       </c>
       <c r="D13">
-        <v>0.04042420257691504</v>
+        <v>0.1142866471882513</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5232467487365184</v>
+        <v>0.467679909207142</v>
       </c>
       <c r="G13">
-        <v>0.3565636940437003</v>
+        <v>0.3162409065134</v>
       </c>
       <c r="H13">
-        <v>0.5099921342318368</v>
+        <v>0.2328299135436112</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2999814171850232</v>
+        <v>0.9452733684152861</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.396240047108449</v>
+        <v>5.195712713995135</v>
       </c>
       <c r="N13">
-        <v>1.186745174680802</v>
+        <v>0.401735514904022</v>
       </c>
       <c r="O13">
-        <v>1.670478366304195</v>
+        <v>1.108945795162953</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3157632676799267</v>
+        <v>0.9975557616561446</v>
       </c>
       <c r="C14">
-        <v>0.06947738433796502</v>
+        <v>0.08574810959194679</v>
       </c>
       <c r="D14">
-        <v>0.03982066719476052</v>
+        <v>0.1124641390159411</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5224498336356618</v>
+        <v>0.4618793445269702</v>
       </c>
       <c r="G14">
-        <v>0.3561756560130789</v>
+        <v>0.3124975949197477</v>
       </c>
       <c r="H14">
-        <v>0.5103402163893236</v>
+        <v>0.2320826453328522</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2950240933628834</v>
+        <v>0.9302543114864079</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.373660308638023</v>
+        <v>5.07689295587349</v>
       </c>
       <c r="N14">
-        <v>1.189478488061764</v>
+        <v>0.4088345946613501</v>
       </c>
       <c r="O14">
-        <v>1.670347055264358</v>
+        <v>1.099384900606225</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3124555465726075</v>
+        <v>0.9870432891105452</v>
       </c>
       <c r="C15">
-        <v>0.06933966471506636</v>
+        <v>0.08545300452509963</v>
       </c>
       <c r="D15">
-        <v>0.039450721253246</v>
+        <v>0.1113472586601603</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5219677592027452</v>
+        <v>0.4583492303497962</v>
       </c>
       <c r="G15">
-        <v>0.3559427488487472</v>
+        <v>0.3102254438627767</v>
       </c>
       <c r="H15">
-        <v>0.510557543287959</v>
+        <v>0.2316354003930172</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2919858416359773</v>
+        <v>0.9210477220691757</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.359844898480262</v>
+        <v>5.00483820846226</v>
       </c>
       <c r="N15">
-        <v>1.191161815587936</v>
+        <v>0.4132046069417088</v>
       </c>
       <c r="O15">
-        <v>1.670285225039947</v>
+        <v>1.093594384175418</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2934861414533145</v>
+        <v>0.9267628354338342</v>
       </c>
       <c r="C16">
-        <v>0.06854979027735908</v>
+        <v>0.0837401148989585</v>
       </c>
       <c r="D16">
-        <v>0.03732671704754864</v>
+        <v>0.1049389647892554</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5192980551364954</v>
+        <v>0.4384569412428405</v>
       </c>
       <c r="G16">
-        <v>0.3546812137186635</v>
+        <v>0.2975094301858263</v>
       </c>
       <c r="H16">
-        <v>0.5118660715970833</v>
+        <v>0.2292286052017261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2745484645203078</v>
+        <v>0.8681880002515356</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.280904170482927</v>
+        <v>4.60205761371013</v>
       </c>
       <c r="N16">
-        <v>1.200947589512479</v>
+        <v>0.4385754465924592</v>
       </c>
       <c r="O16">
-        <v>1.670215920723223</v>
+        <v>1.061382915609016</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2818368114205612</v>
+        <v>0.8897512592838268</v>
       </c>
       <c r="C17">
-        <v>0.06806468095152951</v>
+        <v>0.08267206287354156</v>
       </c>
       <c r="D17">
-        <v>0.03602018798702744</v>
+        <v>0.1010009933476255</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5177431478743841</v>
+        <v>0.4265406334782185</v>
       </c>
       <c r="G17">
-        <v>0.3539725190816512</v>
+        <v>0.2899670647430028</v>
       </c>
       <c r="H17">
-        <v>0.512725153089022</v>
+        <v>0.2278868582373335</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.26382809335405</v>
+        <v>0.8356768577469182</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.232676055263752</v>
+        <v>4.363037613969354</v>
       </c>
       <c r="N17">
-        <v>1.207075057954444</v>
+        <v>0.4544285069885499</v>
       </c>
       <c r="O17">
-        <v>1.670427633442813</v>
+        <v>1.042450956683723</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2751321144955909</v>
+        <v>0.8684522795001897</v>
       </c>
       <c r="C18">
-        <v>0.06778547417206227</v>
+        <v>0.08205218677844783</v>
       </c>
       <c r="D18">
-        <v>0.03526742969835084</v>
+        <v>0.09873363693411363</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5168792608579551</v>
+        <v>0.4197868424163289</v>
       </c>
       <c r="G18">
-        <v>0.3535888368357405</v>
+        <v>0.2857188364492202</v>
       </c>
       <c r="H18">
-        <v>0.5132399883975154</v>
+        <v>0.2271628768342566</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2576537021620737</v>
+        <v>0.8169488115954522</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.205007624700002</v>
+        <v>4.228178356356509</v>
       </c>
       <c r="N18">
-        <v>1.210645028058965</v>
+        <v>0.46365131309605</v>
       </c>
       <c r="O18">
-        <v>1.670642793852451</v>
+        <v>1.031851913097</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2728612959176075</v>
+        <v>0.8612389854837943</v>
       </c>
       <c r="C19">
-        <v>0.06769090936872857</v>
+        <v>0.08184141943439727</v>
       </c>
       <c r="D19">
-        <v>0.03501234087748628</v>
+        <v>0.0979655565784654</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5165919941615371</v>
+        <v>0.417516846397497</v>
       </c>
       <c r="G19">
-        <v>0.35346303784128</v>
+        <v>0.2842954506772344</v>
       </c>
       <c r="H19">
-        <v>0.5134178613466673</v>
+        <v>0.2269257903201023</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2555617473844336</v>
+        <v>0.8106031013508215</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.195651575515257</v>
+        <v>4.182937148781591</v>
       </c>
       <c r="N19">
-        <v>1.211861589206321</v>
+        <v>0.4667917935096373</v>
       </c>
       <c r="O19">
-        <v>1.670731679363499</v>
+        <v>1.028311780554731</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2830773526214045</v>
+        <v>0.8936923448964649</v>
       </c>
       <c r="C20">
-        <v>0.06811634115298659</v>
+        <v>0.08278635070391971</v>
       </c>
       <c r="D20">
-        <v>0.03615940281229513</v>
+        <v>0.1014204415865052</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5179055184845325</v>
+        <v>0.4277986637513962</v>
       </c>
       <c r="G20">
-        <v>0.3540454825203128</v>
+        <v>0.2907605440777985</v>
       </c>
       <c r="H20">
-        <v>0.5126315587435002</v>
+        <v>0.2280247082939439</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2649701598869001</v>
+        <v>0.8391407176676182</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.237802612079918</v>
+        <v>4.388203376530015</v>
       </c>
       <c r="N20">
-        <v>1.206418056981743</v>
+        <v>0.4527300641418002</v>
       </c>
       <c r="O20">
-        <v>1.670395429988261</v>
+        <v>1.044435955534368</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.317349152445928</v>
+        <v>1.002596072594145</v>
       </c>
       <c r="C21">
-        <v>0.06954341240778916</v>
+        <v>0.08588920220503837</v>
       </c>
       <c r="D21">
-        <v>0.03999799508834201</v>
+        <v>0.1129995677339792</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5226826442128782</v>
+        <v>0.4635783051760427</v>
       </c>
       <c r="G21">
-        <v>0.3562886364485962</v>
+        <v>0.3135927427320695</v>
       </c>
       <c r="H21">
-        <v>0.5102371183904211</v>
+        <v>0.2322999415860352</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2964805447309402</v>
+        <v>0.9346672449087237</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.380289317583149</v>
+        <v>5.111639428689813</v>
       </c>
       <c r="N21">
-        <v>1.188673752246201</v>
+        <v>0.4067449095167381</v>
       </c>
       <c r="O21">
-        <v>1.670381747725571</v>
+        <v>1.102179361454773</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3397055812810947</v>
+        <v>1.073655339424533</v>
       </c>
       <c r="C22">
-        <v>0.07047409529773319</v>
+        <v>0.08784929283363851</v>
       </c>
       <c r="D22">
-        <v>0.04249500665254402</v>
+        <v>0.1205433037998063</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5260759624230715</v>
+        <v>0.4879726935040622</v>
       </c>
       <c r="G22">
-        <v>0.3579684176979328</v>
+        <v>0.3294290542328184</v>
       </c>
       <c r="H22">
-        <v>0.5088564831499411</v>
+        <v>0.2355582119097761</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3169966454649682</v>
+        <v>0.9967928902120207</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.474092881939654</v>
+        <v>5.615959335698818</v>
       </c>
       <c r="N22">
-        <v>1.17748375994215</v>
+        <v>0.3776543293412526</v>
       </c>
       <c r="O22">
-        <v>1.671205262082026</v>
+        <v>1.142823702250183</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3277775768885931</v>
+        <v>1.035741553897225</v>
       </c>
       <c r="C23">
-        <v>0.06997757120442571</v>
+        <v>0.08681040284235308</v>
       </c>
       <c r="D23">
-        <v>0.04116339519293888</v>
+        <v>0.1165194519644785</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5242400708457495</v>
+        <v>0.4748542612611786</v>
       </c>
       <c r="G23">
-        <v>0.3570523011726152</v>
+        <v>0.3208872741289781</v>
       </c>
       <c r="H23">
-        <v>0.5095765025033074</v>
+        <v>0.2337747309898646</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3060541100483931</v>
+        <v>0.9636664813407663</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.423963597032227</v>
+        <v>5.343441753192323</v>
       </c>
       <c r="N23">
-        <v>1.183418797022338</v>
+        <v>0.3930909863407139</v>
       </c>
       <c r="O23">
-        <v>1.670689526158355</v>
+        <v>1.120848217540271</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2825165267706211</v>
+        <v>0.8919106438879396</v>
       </c>
       <c r="C24">
-        <v>0.06809298654098228</v>
+        <v>0.08273469917953946</v>
       </c>
       <c r="D24">
-        <v>0.03609646882358675</v>
+        <v>0.1012308194885847</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5178320171329318</v>
+        <v>0.4272296072146844</v>
       </c>
       <c r="G24">
-        <v>0.3540124217623202</v>
+        <v>0.2904015392277728</v>
       </c>
       <c r="H24">
-        <v>0.5126738075279178</v>
+        <v>0.2279622390366853</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2644538661622278</v>
+        <v>0.8375748212059761</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.235484713873916</v>
+        <v>4.376818053873592</v>
       </c>
       <c r="N24">
-        <v>1.206714940090945</v>
+        <v>0.4534975920510789</v>
       </c>
       <c r="O24">
-        <v>1.670409698122171</v>
+        <v>1.04353765264247</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2335324290917526</v>
+        <v>0.7363458852364602</v>
       </c>
       <c r="C25">
-        <v>0.06605329236406021</v>
+        <v>0.0781310779329516</v>
       </c>
       <c r="D25">
-        <v>0.03058232325219734</v>
+        <v>0.08465024568216251</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5120841840942276</v>
+        <v>0.3796366109939981</v>
       </c>
       <c r="G25">
-        <v>0.3516483362561544</v>
+        <v>0.2609085069165218</v>
       </c>
       <c r="H25">
-        <v>0.5168068170535989</v>
+        <v>0.2235003224769017</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2192653122546915</v>
+        <v>0.7004844110562658</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.034871049881147</v>
+        <v>3.431944091542107</v>
       </c>
       <c r="N25">
-        <v>1.23358709127733</v>
+        <v>0.5226290699245806</v>
       </c>
       <c r="O25">
-        <v>1.673677745072965</v>
+        <v>0.9710981305615434</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.621441737636502</v>
+        <v>2.57534337123343</v>
       </c>
       <c r="C2">
-        <v>0.0746303330835616</v>
+        <v>0.5402816685169967</v>
       </c>
       <c r="D2">
-        <v>0.07236990378370933</v>
+        <v>0.03084489862496653</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3473030539438042</v>
+        <v>1.125908633713408</v>
       </c>
       <c r="G2">
-        <v>0.2416013103232899</v>
+        <v>0.9140976911470347</v>
       </c>
       <c r="H2">
-        <v>0.2215875075795566</v>
+        <v>0.01040881573430655</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.008556981817704923</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6323536036120174</v>
       </c>
       <c r="K2">
-        <v>0.5987588322062862</v>
+        <v>0.5980214530070498</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.08392445294392381</v>
       </c>
       <c r="M2">
-        <v>2.789945228945129</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.576758924788356</v>
+        <v>0.2143744284804043</v>
       </c>
       <c r="O2">
-        <v>0.9257197033806364</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4609078650776013</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5433240138946758</v>
+        <v>2.243870967441978</v>
       </c>
       <c r="C3">
-        <v>0.07221274379906362</v>
+        <v>0.4745487112552382</v>
       </c>
       <c r="D3">
-        <v>0.06400229196848528</v>
+        <v>0.02896904919592913</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3268475681727807</v>
+        <v>1.073718939636883</v>
       </c>
       <c r="G3">
-        <v>0.2298024107736083</v>
+        <v>0.8620716443900704</v>
       </c>
       <c r="H3">
-        <v>0.2210667360864278</v>
+        <v>0.01389476272345891</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01183374908859314</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6135702344543716</v>
       </c>
       <c r="K3">
-        <v>0.5293655933770793</v>
+        <v>0.5900124977513599</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0797461865188982</v>
       </c>
       <c r="M3">
-        <v>2.377473857681125</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6153590733919416</v>
+        <v>0.192525990028841</v>
       </c>
       <c r="O3">
-        <v>0.8993018502943073</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4030965278355083</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4952292178232796</v>
+        <v>2.040299569632964</v>
       </c>
       <c r="C4">
-        <v>0.07071239494820247</v>
+        <v>0.4344830834569962</v>
       </c>
       <c r="D4">
-        <v>0.0588419303894625</v>
+        <v>0.02783372777969362</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3149379166787085</v>
+        <v>1.042347038411705</v>
       </c>
       <c r="G4">
-        <v>0.2231284183523599</v>
+        <v>0.8307584351081374</v>
       </c>
       <c r="H4">
-        <v>0.2211053057182752</v>
+        <v>0.01636761513636104</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0142312054252236</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6024489412588423</v>
       </c>
       <c r="K4">
-        <v>0.4865419173721079</v>
+        <v>0.5853979917980503</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.07714719998341657</v>
       </c>
       <c r="M4">
-        <v>2.132570984743637</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6399723204339289</v>
+        <v>0.1791824562504374</v>
       </c>
       <c r="O4">
-        <v>0.8850337983002703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3676488383413457</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4755963197850264</v>
+        <v>1.957237980080095</v>
       </c>
       <c r="C5">
-        <v>0.07009780006821131</v>
+        <v>0.418855848784176</v>
       </c>
       <c r="D5">
-        <v>0.05673330961198531</v>
+        <v>0.02740316020101474</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3102387071924966</v>
+        <v>1.028400030800604</v>
       </c>
       <c r="G5">
-        <v>0.2205434806095425</v>
+        <v>0.8167860204414836</v>
       </c>
       <c r="H5">
-        <v>0.221207763386289</v>
+        <v>0.0174618611047313</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01539038440607898</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5973168144197558</v>
       </c>
       <c r="K5">
-        <v>0.4690376281789099</v>
+        <v>0.5827045689032886</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0760757282443123</v>
       </c>
       <c r="M5">
-        <v>2.03451906026352</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6502270694572809</v>
+        <v>0.1739088786868521</v>
       </c>
       <c r="O5">
-        <v>0.8796849109646274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3532980991634389</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4723342103954593</v>
+        <v>1.943351292282728</v>
       </c>
       <c r="C6">
-        <v>0.06999557629940512</v>
+        <v>0.4170440699206495</v>
       </c>
       <c r="D6">
-        <v>0.05638282687021956</v>
+        <v>0.02736689619315413</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3094674488218629</v>
+        <v>1.024479930661371</v>
       </c>
       <c r="G6">
-        <v>0.2201221496528305</v>
+        <v>0.8128155103036789</v>
       </c>
       <c r="H6">
-        <v>0.2212299205774571</v>
+        <v>0.01765618172347394</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01570503080097563</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5956176856809776</v>
       </c>
       <c r="K6">
-        <v>0.4661278593225262</v>
+        <v>0.5811817259652194</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.07589411216938036</v>
       </c>
       <c r="M6">
-        <v>2.018333767625151</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6519432925385704</v>
+        <v>0.1732159501079025</v>
       </c>
       <c r="O6">
-        <v>0.8788241289595788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3510208324107893</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4949645804629625</v>
+        <v>2.038923671671967</v>
       </c>
       <c r="C7">
-        <v>0.07070411822043354</v>
+        <v>0.4364065473279766</v>
       </c>
       <c r="D7">
-        <v>0.05881351607389718</v>
+        <v>0.02792343599196201</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.314873929665012</v>
+        <v>1.037751676545845</v>
       </c>
       <c r="G7">
-        <v>0.223093022393563</v>
+        <v>0.8260361140475254</v>
       </c>
       <c r="H7">
-        <v>0.2211063405947726</v>
+        <v>0.01640233366405935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01454692406940161</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6000516099794453</v>
       </c>
       <c r="K7">
-        <v>0.4863060630835179</v>
+        <v>0.5824137647356231</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0771251088084508</v>
       </c>
       <c r="M7">
-        <v>2.131241976461936</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6401097162361284</v>
+        <v>0.1796089481317011</v>
       </c>
       <c r="O7">
-        <v>0.8849598092703843</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3677428625293615</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5945331079740868</v>
+        <v>2.460692309749561</v>
       </c>
       <c r="C8">
-        <v>0.07380058285045266</v>
+        <v>0.520402339463601</v>
       </c>
       <c r="D8">
-        <v>0.06948942278582138</v>
+        <v>0.03032060775591461</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3401092172694575</v>
+        <v>1.101942274548804</v>
       </c>
       <c r="G8">
-        <v>0.2374091938226286</v>
+        <v>0.8900192657268917</v>
       </c>
       <c r="H8">
-        <v>0.2213314886986382</v>
+        <v>0.01156089146104157</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.009959491222703676</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6227167909160869</v>
       </c>
       <c r="K8">
-        <v>0.5748775572193381</v>
+        <v>0.5913105033975725</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.0824836634674142</v>
       </c>
       <c r="M8">
-        <v>2.645761845293066</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5898759078118769</v>
+        <v>0.207488448611187</v>
       </c>
       <c r="O8">
-        <v>0.9161896538540475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4413432197228317</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7888028334887451</v>
+        <v>3.288815751249047</v>
       </c>
       <c r="C9">
-        <v>0.07970285349337303</v>
+        <v>0.6840696314093577</v>
       </c>
       <c r="D9">
-        <v>0.09024676906187068</v>
+        <v>0.03501054686504546</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3952142172737609</v>
+        <v>1.241604890866299</v>
       </c>
       <c r="G9">
-        <v>0.2704379546948701</v>
+        <v>1.029254075607327</v>
       </c>
       <c r="H9">
-        <v>0.2247786944515653</v>
+        <v>0.004845422012893175</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003778723552061436</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6748653409280223</v>
       </c>
       <c r="K9">
-        <v>0.7467926617783291</v>
+        <v>0.6166316949267241</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09278994044033695</v>
       </c>
       <c r="M9">
-        <v>3.740180385074595</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4988274365627046</v>
+        <v>0.2619419328453603</v>
       </c>
       <c r="O9">
-        <v>0.9941729730353615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5857308019409757</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9309845945259383</v>
+        <v>3.902552426899433</v>
       </c>
       <c r="C10">
-        <v>0.08386117955022598</v>
+        <v>0.812990546706942</v>
       </c>
       <c r="D10">
-        <v>0.105387989789179</v>
+        <v>0.03823077222306637</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4398306222770429</v>
+        <v>1.322898351017514</v>
       </c>
       <c r="G10">
-        <v>0.2983826118912845</v>
+        <v>1.112358159039246</v>
       </c>
       <c r="H10">
-        <v>0.2293883044711151</v>
+        <v>0.002159202411247563</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001689135933043318</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7038316747292725</v>
       </c>
       <c r="K10">
-        <v>0.8718937393453814</v>
+        <v>0.6232512555076397</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1011777556389273</v>
       </c>
       <c r="M10">
-        <v>4.629710428034301</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4367807874594858</v>
+        <v>0.29359287666081</v>
       </c>
       <c r="O10">
-        <v>1.063583519849772</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6873539219451104</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9955456085759522</v>
+        <v>4.21515214971464</v>
       </c>
       <c r="C11">
-        <v>0.08569176727316119</v>
+        <v>0.9230793822200098</v>
       </c>
       <c r="D11">
-        <v>0.1122505890634784</v>
+        <v>0.03648188059184676</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4612029320317461</v>
+        <v>1.15657604891139</v>
       </c>
       <c r="G11">
-        <v>0.3120618713591199</v>
+        <v>0.9655923552713546</v>
       </c>
       <c r="H11">
-        <v>0.2319965006457352</v>
+        <v>0.02050638663840587</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00184295469650575</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6235145141257163</v>
       </c>
       <c r="K11">
-        <v>0.9284941381509668</v>
+        <v>0.5208411765498582</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1206130851499374</v>
       </c>
       <c r="M11">
-        <v>5.063071700986967</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4096689949821251</v>
+        <v>0.23416916167902</v>
       </c>
       <c r="O11">
-        <v>1.098273704919933</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.688465437691768</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.019974070275566</v>
+        <v>4.351003018033566</v>
       </c>
       <c r="C12">
-        <v>0.08637363977430113</v>
+        <v>0.9880839929538752</v>
       </c>
       <c r="D12">
-        <v>0.1148452696934186</v>
+        <v>0.03444323194258558</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4694678340050444</v>
+        <v>1.014074676462258</v>
       </c>
       <c r="G12">
-        <v>0.3173971388377765</v>
+        <v>0.838617255460619</v>
       </c>
       <c r="H12">
-        <v>0.2330632767496752</v>
+        <v>0.05924937292488153</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001774560982938489</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5566020885864589</v>
       </c>
       <c r="K12">
-        <v>0.9498758647194734</v>
+        <v>0.4454762291467169</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1459735811698977</v>
       </c>
       <c r="M12">
-        <v>5.232446824029253</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3995673537450299</v>
+        <v>0.1834834984054012</v>
       </c>
       <c r="O12">
-        <v>1.111904122195796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6669873043283516</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.014713884285555</v>
+        <v>4.356797492567921</v>
       </c>
       <c r="C13">
-        <v>0.08622733867542109</v>
+        <v>1.024798506463981</v>
       </c>
       <c r="D13">
-        <v>0.1142866471882513</v>
+        <v>0.03220285003553514</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.467679909207142</v>
+        <v>0.8748144988452964</v>
       </c>
       <c r="G13">
-        <v>0.3162409065134</v>
+        <v>0.7123792088871568</v>
       </c>
       <c r="H13">
-        <v>0.2328299135436112</v>
+        <v>0.1153290778854199</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001862586226710761</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.492407680253109</v>
       </c>
       <c r="K13">
-        <v>0.9452733684152861</v>
+        <v>0.381771051991926</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1768677859789776</v>
       </c>
       <c r="M13">
-        <v>5.195712713995135</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.401735514904022</v>
+        <v>0.137658047661084</v>
       </c>
       <c r="O13">
-        <v>1.108945795162953</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6275094244495278</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9975557616561446</v>
+        <v>4.301804530995696</v>
       </c>
       <c r="C14">
-        <v>0.08574810959194679</v>
+        <v>1.038496010337951</v>
       </c>
       <c r="D14">
-        <v>0.1124641390159411</v>
+        <v>0.03060861652898694</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4618793445269702</v>
+        <v>0.7797099049449301</v>
       </c>
       <c r="G14">
-        <v>0.3124975949197477</v>
+        <v>0.6250413726618689</v>
       </c>
       <c r="H14">
-        <v>0.2320826453328522</v>
+        <v>0.1650374095871427</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002113040100765851</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4489662045866538</v>
       </c>
       <c r="K14">
-        <v>0.9302543114864079</v>
+        <v>0.3431987578634477</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2021723724330116</v>
       </c>
       <c r="M14">
-        <v>5.07689295587349</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4088345946613501</v>
+        <v>0.1091046561649094</v>
       </c>
       <c r="O14">
-        <v>1.099384900606225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5920498927399152</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9870432891105452</v>
+        <v>4.260307498661803</v>
       </c>
       <c r="C15">
-        <v>0.08545300452509963</v>
+        <v>1.03635448896344</v>
       </c>
       <c r="D15">
-        <v>0.1113472586601603</v>
+        <v>0.03016442403125197</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4583492303497962</v>
+        <v>0.7551335610260068</v>
       </c>
       <c r="G15">
-        <v>0.3102254438627767</v>
+        <v>0.6018683488484413</v>
       </c>
       <c r="H15">
-        <v>0.2316354003930172</v>
+        <v>0.1777337342537209</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002353574042526674</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4379413934131264</v>
       </c>
       <c r="K15">
-        <v>0.9210477220691757</v>
+        <v>0.3346647833142526</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2081569608538558</v>
       </c>
       <c r="M15">
-        <v>5.00483820846226</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4132046069417088</v>
+        <v>0.1024513813451478</v>
       </c>
       <c r="O15">
-        <v>1.093594384175418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5798243367551237</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9267628354338342</v>
+        <v>3.992647338975132</v>
       </c>
       <c r="C16">
-        <v>0.0837401148989585</v>
+        <v>0.9728461298984428</v>
       </c>
       <c r="D16">
-        <v>0.1049389647892554</v>
+        <v>0.02929560245370233</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4384569412428405</v>
+        <v>0.7476984318844728</v>
       </c>
       <c r="G16">
-        <v>0.2975094301858263</v>
+        <v>0.5906498683617087</v>
       </c>
       <c r="H16">
-        <v>0.2292286052017261</v>
+        <v>0.1660895685917581</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.003197096782114883</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4376341956592569</v>
       </c>
       <c r="K16">
-        <v>0.8681880002515356</v>
+        <v>0.3434486421399825</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1971861452245491</v>
       </c>
       <c r="M16">
-        <v>4.60205761371013</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4385754465924592</v>
+        <v>0.09974495065294064</v>
       </c>
       <c r="O16">
-        <v>1.061382915609016</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5453189045250539</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8897512592838268</v>
+        <v>3.817237665533753</v>
       </c>
       <c r="C17">
-        <v>0.08267206287354156</v>
+        <v>0.9171517667170122</v>
       </c>
       <c r="D17">
-        <v>0.1010009933476255</v>
+        <v>0.02945698455781631</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4265406334782185</v>
+        <v>0.7913637507130602</v>
       </c>
       <c r="G17">
-        <v>0.2899670647430028</v>
+        <v>0.6274024447753135</v>
       </c>
       <c r="H17">
-        <v>0.2278868582373335</v>
+        <v>0.1290048105453536</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.003789854074793375</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4600459951494713</v>
       </c>
       <c r="K17">
-        <v>0.8356768577469182</v>
+        <v>0.3698468351565509</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1746213553906557</v>
       </c>
       <c r="M17">
-        <v>4.363037613969354</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4544285069885499</v>
+        <v>0.112005016200456</v>
       </c>
       <c r="O17">
-        <v>1.042450956683723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5375816339864272</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8684522795001897</v>
+        <v>3.701314909121947</v>
       </c>
       <c r="C18">
-        <v>0.08205218677844783</v>
+        <v>0.8606995089177474</v>
       </c>
       <c r="D18">
-        <v>0.09873363693411363</v>
+        <v>0.03060641120071672</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4197868424163289</v>
+        <v>0.8913254225451439</v>
       </c>
       <c r="G18">
-        <v>0.2857188364492202</v>
+        <v>0.7165721039973079</v>
       </c>
       <c r="H18">
-        <v>0.2271628768342566</v>
+        <v>0.07638905488582282</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.003770668805058719</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5079489360122835</v>
       </c>
       <c r="K18">
-        <v>0.8169488115954522</v>
+        <v>0.4201124593869032</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1442667756867806</v>
       </c>
       <c r="M18">
-        <v>4.228178356356509</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.46365131309605</v>
+        <v>0.1418943620388831</v>
       </c>
       <c r="O18">
-        <v>1.031851913097</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5516701267117128</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8612389854837943</v>
+        <v>3.641288342090547</v>
       </c>
       <c r="C19">
-        <v>0.08184141943439727</v>
+        <v>0.8138790017890187</v>
       </c>
       <c r="D19">
-        <v>0.0979655565784654</v>
+        <v>0.03280794268497189</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.417516846397497</v>
+        <v>1.030621378348869</v>
       </c>
       <c r="G19">
-        <v>0.2842954506772344</v>
+        <v>0.8417493607570918</v>
       </c>
       <c r="H19">
-        <v>0.2269257903201023</v>
+        <v>0.03074999985463478</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003772926637106266</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5727192254271785</v>
       </c>
       <c r="K19">
-        <v>0.8106031013508215</v>
+        <v>0.4887273003391606</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1175543587247319</v>
       </c>
       <c r="M19">
-        <v>4.182937148781591</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4667917935096373</v>
+        <v>0.1900666505814925</v>
       </c>
       <c r="O19">
-        <v>1.028311780554731</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5830038369861299</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8936923448964649</v>
+        <v>3.740431442460135</v>
       </c>
       <c r="C20">
-        <v>0.08278635070391971</v>
+        <v>0.7860666588897516</v>
       </c>
       <c r="D20">
-        <v>0.1014204415865052</v>
+        <v>0.03765334587542313</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4277986637513962</v>
+        <v>1.286663804443165</v>
       </c>
       <c r="G20">
-        <v>0.2907605440777985</v>
+        <v>1.075298639673036</v>
       </c>
       <c r="H20">
-        <v>0.2280247082939439</v>
+        <v>0.002739624582078104</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002913887652072233</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6884493961131568</v>
       </c>
       <c r="K20">
-        <v>0.8391407176676182</v>
+        <v>0.6119077154458381</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09902539604290439</v>
       </c>
       <c r="M20">
-        <v>4.388203376530015</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4527300641418002</v>
+        <v>0.2864379977098821</v>
       </c>
       <c r="O20">
-        <v>1.044435955534368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6613100673956325</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.002596072594145</v>
+        <v>4.206737449390516</v>
       </c>
       <c r="C21">
-        <v>0.08588920220503837</v>
+        <v>0.8765664667798205</v>
       </c>
       <c r="D21">
-        <v>0.1129995677339792</v>
+        <v>0.04076294250312884</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4635783051760427</v>
+        <v>1.390090300057622</v>
       </c>
       <c r="G21">
-        <v>0.3135927427320695</v>
+        <v>1.176725539551867</v>
       </c>
       <c r="H21">
-        <v>0.2322999415860352</v>
+        <v>0.0009223164004350526</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001877176807748349</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7298541383629242</v>
       </c>
       <c r="K21">
-        <v>0.9346672449087237</v>
+        <v>0.638918771522043</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1041417537658571</v>
       </c>
       <c r="M21">
-        <v>5.111639428689813</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4067449095167381</v>
+        <v>0.3248522854811</v>
       </c>
       <c r="O21">
-        <v>1.102179361454773</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7474625841716431</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.073655339424533</v>
+        <v>4.514613001586724</v>
       </c>
       <c r="C22">
-        <v>0.08784929283363851</v>
+        <v>0.9361486694817529</v>
       </c>
       <c r="D22">
-        <v>0.1205433037998063</v>
+        <v>0.04249780828262928</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4879726935040622</v>
+        <v>1.452490319883992</v>
       </c>
       <c r="G22">
-        <v>0.3294290542328184</v>
+        <v>1.239182256776985</v>
       </c>
       <c r="H22">
-        <v>0.2355582119097761</v>
+        <v>0.0003068287090401967</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001410499746698157</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7550273307159614</v>
       </c>
       <c r="K22">
-        <v>0.9967928902120207</v>
+        <v>0.6544546653003209</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1079451095194202</v>
       </c>
       <c r="M22">
-        <v>5.615959335698818</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3776543293412526</v>
+        <v>0.3447649593021822</v>
       </c>
       <c r="O22">
-        <v>1.142823702250183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.800948748703938</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.035741553897225</v>
+        <v>4.350585768127303</v>
       </c>
       <c r="C23">
-        <v>0.08681040284235308</v>
+        <v>0.9016588077233223</v>
       </c>
       <c r="D23">
-        <v>0.1165194519644785</v>
+        <v>0.04145377989826926</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4748542612611786</v>
+        <v>1.424239742955933</v>
       </c>
       <c r="G23">
-        <v>0.3208872741289781</v>
+        <v>1.211069413497341</v>
       </c>
       <c r="H23">
-        <v>0.2337747309898646</v>
+        <v>0.0005896477288995783</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001299288945200594</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7442388392910004</v>
       </c>
       <c r="K23">
-        <v>0.9636664813407663</v>
+        <v>0.6495144864826941</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1059090336973103</v>
       </c>
       <c r="M23">
-        <v>5.343441753192323</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3930909863407139</v>
+        <v>0.3335140502391454</v>
       </c>
       <c r="O23">
-        <v>1.120848217540271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.772040402278094</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8919106438879396</v>
+        <v>3.730429990582991</v>
       </c>
       <c r="C24">
-        <v>0.08273469917953946</v>
+        <v>0.7764925535433633</v>
       </c>
       <c r="D24">
-        <v>0.1012308194885847</v>
+        <v>0.03775937132144236</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4272296072146844</v>
+        <v>1.311516208279627</v>
       </c>
       <c r="G24">
-        <v>0.2904015392277728</v>
+        <v>1.09865195986356</v>
       </c>
       <c r="H24">
-        <v>0.2279622390366853</v>
+        <v>0.002547054179938835</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002389900784586452</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7004555386039613</v>
       </c>
       <c r="K24">
-        <v>0.8375748212059761</v>
+        <v>0.6265115591048627</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09824814173341245</v>
       </c>
       <c r="M24">
-        <v>4.376818053873592</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4534975920510789</v>
+        <v>0.2921742040266793</v>
       </c>
       <c r="O24">
-        <v>1.04353765264247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6635159406839861</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7363458852364602</v>
+        <v>3.064064689044926</v>
       </c>
       <c r="C25">
-        <v>0.0781310779329516</v>
+        <v>0.6433727813143264</v>
       </c>
       <c r="D25">
-        <v>0.08465024568216251</v>
+        <v>0.03389381512697298</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3796366109939981</v>
+        <v>1.195169739852219</v>
       </c>
       <c r="G25">
-        <v>0.2609085069165218</v>
+        <v>0.9827022968364787</v>
       </c>
       <c r="H25">
-        <v>0.2235003224769017</v>
+        <v>0.006357195640124103</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.005551905375729582</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6561607572439101</v>
       </c>
       <c r="K25">
-        <v>0.7004844110562658</v>
+        <v>0.6042059307640386</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09001425971263721</v>
       </c>
       <c r="M25">
-        <v>3.431944091542107</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5226290699245806</v>
+        <v>0.2480381038187147</v>
       </c>
       <c r="O25">
-        <v>0.9710981305615434</v>
+        <v>0.5471019951127829</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.57534337123343</v>
+        <v>2.576223596678801</v>
       </c>
       <c r="C2">
-        <v>0.5402816685169967</v>
+        <v>0.5872758666115203</v>
       </c>
       <c r="D2">
-        <v>0.03084489862496653</v>
+        <v>0.0355302364955854</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.125908633713408</v>
+        <v>0.988789779002893</v>
       </c>
       <c r="G2">
-        <v>0.9140976911470347</v>
+        <v>0.7607811556654127</v>
       </c>
       <c r="H2">
-        <v>0.01040881573430655</v>
+        <v>0.008541350040512707</v>
       </c>
       <c r="I2">
-        <v>0.008556981817704923</v>
+        <v>0.00608975497724451</v>
       </c>
       <c r="J2">
-        <v>0.6323536036120174</v>
+        <v>0.5822155150881372</v>
       </c>
       <c r="K2">
-        <v>0.5980214530070498</v>
+        <v>0.4960161665170482</v>
       </c>
       <c r="L2">
-        <v>0.08392445294392381</v>
+        <v>0.2188125856571936</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1561452109564421</v>
       </c>
       <c r="N2">
-        <v>0.2143744284804043</v>
+        <v>0.08347676615719735</v>
       </c>
       <c r="O2">
-        <v>0.4609078650776013</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2364188258034545</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4696438753200027</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.243870967441978</v>
+        <v>2.245104932220158</v>
       </c>
       <c r="C3">
-        <v>0.4745487112552382</v>
+        <v>0.5108383471776392</v>
       </c>
       <c r="D3">
-        <v>0.02896904919592913</v>
+        <v>0.03344945448626646</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.073718939636883</v>
+        <v>0.9521419140832208</v>
       </c>
       <c r="G3">
-        <v>0.8620716443900704</v>
+        <v>0.7274584622447122</v>
       </c>
       <c r="H3">
-        <v>0.01389476272345891</v>
+        <v>0.01142377589784559</v>
       </c>
       <c r="I3">
-        <v>0.01183374908859314</v>
+        <v>0.008461974994691257</v>
       </c>
       <c r="J3">
-        <v>0.6135702344543716</v>
+        <v>0.5661727225377717</v>
       </c>
       <c r="K3">
-        <v>0.5900124977513599</v>
+        <v>0.4966757251591183</v>
       </c>
       <c r="L3">
-        <v>0.0797461865188982</v>
+        <v>0.2229821180430918</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1538374758771894</v>
       </c>
       <c r="N3">
-        <v>0.192525990028841</v>
+        <v>0.07935579085094702</v>
       </c>
       <c r="O3">
-        <v>0.4030965278355083</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2126656346755809</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.410276865153115</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.040299569632964</v>
+        <v>2.041540147290107</v>
       </c>
       <c r="C4">
-        <v>0.4344830834569962</v>
+        <v>0.4643345101138152</v>
       </c>
       <c r="D4">
-        <v>0.02783372777969362</v>
+        <v>0.03219380571420416</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.042347038411705</v>
+        <v>0.9300643089748206</v>
       </c>
       <c r="G4">
-        <v>0.8307584351081374</v>
+        <v>0.7075859709928665</v>
       </c>
       <c r="H4">
-        <v>0.01636761513636104</v>
+        <v>0.01347130016893991</v>
       </c>
       <c r="I4">
-        <v>0.0142312054252236</v>
+        <v>0.01022434066586797</v>
       </c>
       <c r="J4">
-        <v>0.6024489412588423</v>
+        <v>0.5563434281756514</v>
       </c>
       <c r="K4">
-        <v>0.5853979917980503</v>
+        <v>0.4972573984293831</v>
       </c>
       <c r="L4">
-        <v>0.07714719998341657</v>
+        <v>0.2255028190224522</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1531210124710363</v>
       </c>
       <c r="N4">
-        <v>0.1791824562504374</v>
+        <v>0.07680078984620131</v>
       </c>
       <c r="O4">
-        <v>0.3676488383413457</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1981818733755389</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3738593097437146</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.957237980080095</v>
+        <v>1.958434735733931</v>
       </c>
       <c r="C5">
-        <v>0.418855848784176</v>
+        <v>0.4461127614131044</v>
       </c>
       <c r="D5">
-        <v>0.02740316020101474</v>
+        <v>0.03171654393263523</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.028400030800604</v>
+        <v>0.9200274512047173</v>
       </c>
       <c r="G5">
-        <v>0.8167860204414836</v>
+        <v>0.6984749965581614</v>
       </c>
       <c r="H5">
-        <v>0.0174618611047313</v>
+        <v>0.01437800627325089</v>
       </c>
       <c r="I5">
-        <v>0.01539038440607898</v>
+        <v>0.01111605490662981</v>
       </c>
       <c r="J5">
-        <v>0.5973168144197558</v>
+        <v>0.5517277493385961</v>
       </c>
       <c r="K5">
-        <v>0.5827045689032886</v>
+        <v>0.4968172246280318</v>
       </c>
       <c r="L5">
-        <v>0.0760757282443123</v>
+        <v>0.2261889060427507</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1527953729730083</v>
       </c>
       <c r="N5">
-        <v>0.1739088786868521</v>
+        <v>0.0757574633201159</v>
       </c>
       <c r="O5">
-        <v>0.3532980991634389</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.192444175965008</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3591042651991927</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.943351292282728</v>
+        <v>1.944540382504726</v>
       </c>
       <c r="C6">
-        <v>0.4170440699206495</v>
+        <v>0.4438662778824209</v>
       </c>
       <c r="D6">
-        <v>0.02736689619315413</v>
+        <v>0.03167365217428042</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.024479930661371</v>
+        <v>0.9169764862554857</v>
       </c>
       <c r="G6">
-        <v>0.8128155103036789</v>
+        <v>0.6955680865385432</v>
       </c>
       <c r="H6">
-        <v>0.01765618172347394</v>
+        <v>0.01453909184284419</v>
       </c>
       <c r="I6">
-        <v>0.01570503080097563</v>
+        <v>0.01139941790426313</v>
       </c>
       <c r="J6">
-        <v>0.5956176856809776</v>
+        <v>0.5502123219655033</v>
       </c>
       <c r="K6">
-        <v>0.5811817259652194</v>
+        <v>0.4958703587446394</v>
       </c>
       <c r="L6">
-        <v>0.07589411216938036</v>
+        <v>0.2258992633109038</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1524981154701841</v>
       </c>
       <c r="N6">
-        <v>0.1732159501079025</v>
+        <v>0.07559023517657693</v>
       </c>
       <c r="O6">
-        <v>0.3510208324107893</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1916660677524078</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3567523092379616</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.038923671671967</v>
+        <v>2.040146739006786</v>
       </c>
       <c r="C7">
-        <v>0.4364065473279766</v>
+        <v>0.4654042818016251</v>
       </c>
       <c r="D7">
-        <v>0.02792343599196201</v>
+        <v>0.03239551288087839</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.037751676545845</v>
+        <v>0.9239915958894755</v>
       </c>
       <c r="G7">
-        <v>0.8260361140475254</v>
+        <v>0.7064065011727649</v>
       </c>
       <c r="H7">
-        <v>0.01640233366405935</v>
+        <v>0.01351078660950544</v>
       </c>
       <c r="I7">
-        <v>0.01454692406940161</v>
+        <v>0.01058450448489978</v>
       </c>
       <c r="J7">
-        <v>0.6000516099794453</v>
+        <v>0.5476666288463008</v>
       </c>
       <c r="K7">
-        <v>0.5824137647356231</v>
+        <v>0.4937998167063675</v>
       </c>
       <c r="L7">
-        <v>0.0771251088084508</v>
+        <v>0.2239540890369049</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1520869014378139</v>
       </c>
       <c r="N7">
-        <v>0.1796089481317011</v>
+        <v>0.07677771190367544</v>
       </c>
       <c r="O7">
-        <v>0.3677428625293615</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1985814796796745</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3739340965199816</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.460692309749561</v>
+        <v>2.461658178835478</v>
       </c>
       <c r="C8">
-        <v>0.520402339463601</v>
+        <v>0.5609583434836622</v>
       </c>
       <c r="D8">
-        <v>0.03032060775591461</v>
+        <v>0.03531033663318084</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.101942274548804</v>
+        <v>0.9640118226411829</v>
       </c>
       <c r="G8">
-        <v>0.8900192657268917</v>
+        <v>0.7534143803303834</v>
       </c>
       <c r="H8">
-        <v>0.01156089146104157</v>
+        <v>0.009521056436983401</v>
       </c>
       <c r="I8">
-        <v>0.009959491222703676</v>
+        <v>0.007272885151899722</v>
       </c>
       <c r="J8">
-        <v>0.6227167909160869</v>
+        <v>0.5524943684131216</v>
       </c>
       <c r="K8">
-        <v>0.5913105033975725</v>
+        <v>0.4896328670615766</v>
       </c>
       <c r="L8">
-        <v>0.0824836634674142</v>
+        <v>0.2174848197487904</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1530468678603576</v>
       </c>
       <c r="N8">
-        <v>0.207488448611187</v>
+        <v>0.08200378633654992</v>
       </c>
       <c r="O8">
-        <v>0.4413432197228317</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2288502826964702</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4495374671498737</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.288815751249047</v>
+        <v>3.287450393636163</v>
       </c>
       <c r="C9">
-        <v>0.6840696314093577</v>
+        <v>0.7512715676780601</v>
       </c>
       <c r="D9">
-        <v>0.03501054686504546</v>
+        <v>0.04064351599784999</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.241604890866299</v>
+        <v>1.060786517838096</v>
       </c>
       <c r="G9">
-        <v>1.029254075607327</v>
+        <v>0.8475744249323611</v>
       </c>
       <c r="H9">
-        <v>0.004845422012893175</v>
+        <v>0.003975037907683276</v>
       </c>
       <c r="I9">
-        <v>0.003778723552061436</v>
+        <v>0.002809955412486076</v>
       </c>
       <c r="J9">
-        <v>0.6748653409280223</v>
+        <v>0.5892230893209103</v>
       </c>
       <c r="K9">
-        <v>0.6166316949267241</v>
+        <v>0.4910597057346209</v>
       </c>
       <c r="L9">
-        <v>0.09278994044033695</v>
+        <v>0.2079836834666331</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.163150860798801</v>
       </c>
       <c r="N9">
-        <v>0.2619419328453603</v>
+        <v>0.0921583268986037</v>
       </c>
       <c r="O9">
-        <v>0.5857308019409757</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2882424474291412</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5977169675276528</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.902552426899433</v>
+        <v>3.89797450371276</v>
       </c>
       <c r="C10">
-        <v>0.812990546706942</v>
+        <v>0.8942455522533521</v>
       </c>
       <c r="D10">
-        <v>0.03823077222306637</v>
+        <v>0.0448728030757799</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.322898351017514</v>
+        <v>1.102406148063523</v>
       </c>
       <c r="G10">
-        <v>1.112358159039246</v>
+        <v>0.9194273610556252</v>
       </c>
       <c r="H10">
-        <v>0.002159202411247563</v>
+        <v>0.001819048294102732</v>
       </c>
       <c r="I10">
-        <v>0.001689135933043318</v>
+        <v>0.001519375002067669</v>
       </c>
       <c r="J10">
-        <v>0.7038316747292725</v>
+        <v>0.5715618377053744</v>
       </c>
       <c r="K10">
-        <v>0.6232512555076397</v>
+        <v>0.4778545458345604</v>
       </c>
       <c r="L10">
-        <v>0.1011777556389273</v>
+        <v>0.1954080445584623</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1680476914915978</v>
       </c>
       <c r="N10">
-        <v>0.29359287666081</v>
+        <v>0.1008494435127538</v>
       </c>
       <c r="O10">
-        <v>0.6873539219451104</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3228328028573628</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7017296594048616</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.21515214971464</v>
+        <v>4.210238877416828</v>
       </c>
       <c r="C11">
-        <v>0.9230793822200098</v>
+        <v>0.990489697695125</v>
       </c>
       <c r="D11">
-        <v>0.03648188059184676</v>
+        <v>0.04318174129929275</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.15657604891139</v>
+        <v>0.9441232199458369</v>
       </c>
       <c r="G11">
-        <v>0.9655923552713546</v>
+        <v>0.8364259012475657</v>
       </c>
       <c r="H11">
-        <v>0.02050638663840587</v>
+        <v>0.02026189364870845</v>
       </c>
       <c r="I11">
-        <v>0.00184295469650575</v>
+        <v>0.001941605029908366</v>
       </c>
       <c r="J11">
-        <v>0.6235145141257163</v>
+        <v>0.4462906483987297</v>
       </c>
       <c r="K11">
-        <v>0.5208411765498582</v>
+        <v>0.3920590035471463</v>
       </c>
       <c r="L11">
-        <v>0.1206130851499374</v>
+        <v>0.162585478831442</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1379387386496838</v>
       </c>
       <c r="N11">
-        <v>0.23416916167902</v>
+        <v>0.1242236747093841</v>
       </c>
       <c r="O11">
-        <v>0.688465437691768</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2579671270999881</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7015941763414801</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.351003018033566</v>
+        <v>4.346773175498413</v>
       </c>
       <c r="C12">
-        <v>0.9880839929538752</v>
+        <v>1.042444285530962</v>
       </c>
       <c r="D12">
-        <v>0.03444323194258558</v>
+        <v>0.04045261386976406</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.014074676462258</v>
+        <v>0.8228504110550574</v>
       </c>
       <c r="G12">
-        <v>0.838617255460619</v>
+        <v>0.7496079322180265</v>
       </c>
       <c r="H12">
-        <v>0.05924937292488153</v>
+        <v>0.05901744404293652</v>
       </c>
       <c r="I12">
-        <v>0.001774560982938489</v>
+        <v>0.00190254527393563</v>
       </c>
       <c r="J12">
-        <v>0.5566020885864589</v>
+        <v>0.3778854807332408</v>
       </c>
       <c r="K12">
-        <v>0.4454762291467169</v>
+        <v>0.3364443090356524</v>
       </c>
       <c r="L12">
-        <v>0.1459735811698977</v>
+        <v>0.1430982895233708</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1162768048558327</v>
       </c>
       <c r="N12">
-        <v>0.1834834984054012</v>
+        <v>0.1521210138107776</v>
       </c>
       <c r="O12">
-        <v>0.6669873043283516</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2025755716130533</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6786095231206133</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.356797492567921</v>
+        <v>4.354271287617792</v>
       </c>
       <c r="C13">
-        <v>1.024798506463981</v>
+        <v>1.068775038876652</v>
       </c>
       <c r="D13">
-        <v>0.03220285003553514</v>
+        <v>0.03687254406806417</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8748144988452964</v>
+        <v>0.7190332978447103</v>
       </c>
       <c r="G13">
-        <v>0.7123792088871568</v>
+        <v>0.6440232473838421</v>
       </c>
       <c r="H13">
-        <v>0.1153290778854199</v>
+        <v>0.1150385306160331</v>
       </c>
       <c r="I13">
-        <v>0.001862586226710761</v>
+        <v>0.001926764217048849</v>
       </c>
       <c r="J13">
-        <v>0.492407680253109</v>
+        <v>0.3463057696624219</v>
       </c>
       <c r="K13">
-        <v>0.381771051991926</v>
+        <v>0.2967988500011352</v>
       </c>
       <c r="L13">
-        <v>0.1768677859789776</v>
+        <v>0.1303046035203952</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.09911869757107539</v>
       </c>
       <c r="N13">
-        <v>0.137658047661084</v>
+        <v>0.1845638164403454</v>
       </c>
       <c r="O13">
-        <v>0.6275094244495278</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.15239027012381</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6373108292442495</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.301804530995696</v>
+        <v>4.300893297318908</v>
       </c>
       <c r="C14">
-        <v>1.038496010337951</v>
+        <v>1.076360887823682</v>
       </c>
       <c r="D14">
-        <v>0.03060861652898694</v>
+        <v>0.03421471453397373</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7797099049449301</v>
+        <v>0.6531897855829243</v>
       </c>
       <c r="G14">
-        <v>0.6250413726618689</v>
+        <v>0.5638942757755387</v>
       </c>
       <c r="H14">
-        <v>0.1650374095871427</v>
+        <v>0.1646667574615321</v>
       </c>
       <c r="I14">
-        <v>0.002113040100765851</v>
+        <v>0.002094855136447471</v>
       </c>
       <c r="J14">
-        <v>0.4489662045866538</v>
+        <v>0.3367085128868794</v>
       </c>
       <c r="K14">
-        <v>0.3431987578634477</v>
+        <v>0.2755898667988639</v>
       </c>
       <c r="L14">
-        <v>0.2021723724330116</v>
+        <v>0.1238230464031105</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.08920082298280363</v>
       </c>
       <c r="N14">
-        <v>0.1091046561649094</v>
+        <v>0.2103308805916129</v>
       </c>
       <c r="O14">
-        <v>0.5920498927399152</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.121073671667034</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6004385433393864</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.260307498661803</v>
+        <v>4.259979983778123</v>
       </c>
       <c r="C15">
-        <v>1.03635448896344</v>
+        <v>1.073310744769032</v>
       </c>
       <c r="D15">
-        <v>0.03016442403125197</v>
+        <v>0.03345607115811688</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7551335610260068</v>
+        <v>0.6381540479132894</v>
       </c>
       <c r="G15">
-        <v>0.6018683488484413</v>
+        <v>0.5401477822420446</v>
       </c>
       <c r="H15">
-        <v>0.1777337342537209</v>
+        <v>0.1773208018202723</v>
       </c>
       <c r="I15">
-        <v>0.002353574042526674</v>
+        <v>0.002309093104626569</v>
       </c>
       <c r="J15">
-        <v>0.4379413934131264</v>
+        <v>0.3389585814667342</v>
       </c>
       <c r="K15">
-        <v>0.3346647833142526</v>
+        <v>0.2720004260618722</v>
       </c>
       <c r="L15">
-        <v>0.2081569608538558</v>
+        <v>0.1228515724207035</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.08720477037546814</v>
       </c>
       <c r="N15">
-        <v>0.1024513813451478</v>
+        <v>0.2162906290229998</v>
       </c>
       <c r="O15">
-        <v>0.5798243367551237</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1137728879863147</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5877939526769183</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.992647338975132</v>
+        <v>3.99388713848964</v>
       </c>
       <c r="C16">
-        <v>0.9728461298984428</v>
+        <v>1.014718039008585</v>
       </c>
       <c r="D16">
-        <v>0.02929560245370233</v>
+        <v>0.03198607338541848</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7476984318844728</v>
+        <v>0.651921625128054</v>
       </c>
       <c r="G16">
-        <v>0.5906498683617087</v>
+        <v>0.5099733819999415</v>
       </c>
       <c r="H16">
-        <v>0.1660895685917581</v>
+        <v>0.1654372084365434</v>
       </c>
       <c r="I16">
-        <v>0.003197096782114883</v>
+        <v>0.002883286548767572</v>
       </c>
       <c r="J16">
-        <v>0.4376341956592569</v>
+        <v>0.3841508862272036</v>
       </c>
       <c r="K16">
-        <v>0.3434486421399825</v>
+        <v>0.2876585967798242</v>
       </c>
       <c r="L16">
-        <v>0.1971861452245491</v>
+        <v>0.1290875675024079</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.09134529247971024</v>
       </c>
       <c r="N16">
-        <v>0.09974495065294064</v>
+        <v>0.2046667756181009</v>
       </c>
       <c r="O16">
-        <v>0.5453189045250539</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1109474126360226</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5526474419215361</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.817237665533753</v>
+        <v>3.818706657352209</v>
       </c>
       <c r="C17">
-        <v>0.9171517667170122</v>
+        <v>0.9643773589228601</v>
       </c>
       <c r="D17">
-        <v>0.02945698455781631</v>
+        <v>0.03220567484666503</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7913637507130602</v>
+        <v>0.6959036996289854</v>
       </c>
       <c r="G17">
-        <v>0.6274024447753135</v>
+        <v>0.5306759550759494</v>
       </c>
       <c r="H17">
-        <v>0.1290048105453536</v>
+        <v>0.1282043677506834</v>
       </c>
       <c r="I17">
-        <v>0.003789854074793375</v>
+        <v>0.003303446332084015</v>
       </c>
       <c r="J17">
-        <v>0.4600459951494713</v>
+        <v>0.4223331260611189</v>
       </c>
       <c r="K17">
-        <v>0.3698468351565509</v>
+        <v>0.3108128728373423</v>
       </c>
       <c r="L17">
-        <v>0.1746213553906557</v>
+        <v>0.1378239343202434</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.09928846370899258</v>
       </c>
       <c r="N17">
-        <v>0.112005016200456</v>
+        <v>0.1815003371531105</v>
       </c>
       <c r="O17">
-        <v>0.5375816339864272</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1244700165841905</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5451607922723767</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.701314909121947</v>
+        <v>3.702106011807302</v>
       </c>
       <c r="C18">
-        <v>0.8606995089177474</v>
+        <v>0.9159962582550065</v>
       </c>
       <c r="D18">
-        <v>0.03060641120071672</v>
+        <v>0.03382774648299502</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8913254225451439</v>
+        <v>0.7803528664223194</v>
       </c>
       <c r="G18">
-        <v>0.7165721039973079</v>
+        <v>0.5969937835433257</v>
       </c>
       <c r="H18">
-        <v>0.07638905488582282</v>
+        <v>0.07554281256823003</v>
       </c>
       <c r="I18">
-        <v>0.003770668805058719</v>
+        <v>0.00317055320804549</v>
       </c>
       <c r="J18">
-        <v>0.5079489360122835</v>
+        <v>0.4692746617027126</v>
       </c>
       <c r="K18">
-        <v>0.4201124593869032</v>
+        <v>0.3485794991482258</v>
       </c>
       <c r="L18">
-        <v>0.1442667756867806</v>
+        <v>0.1518563084409248</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1132618585819358</v>
       </c>
       <c r="N18">
-        <v>0.1418943620388831</v>
+        <v>0.1501627828715755</v>
       </c>
       <c r="O18">
-        <v>0.5516701267117128</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1572272364916074</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5603333842008169</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.641288342090547</v>
+        <v>3.640837985548558</v>
       </c>
       <c r="C19">
-        <v>0.8138790017890187</v>
+        <v>0.8789665815813521</v>
       </c>
       <c r="D19">
-        <v>0.03280794268497189</v>
+        <v>0.03684573649890766</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.030621378348869</v>
+        <v>0.8926727037007751</v>
       </c>
       <c r="G19">
-        <v>0.8417493607570918</v>
+        <v>0.6925296282705347</v>
       </c>
       <c r="H19">
-        <v>0.03074999985463478</v>
+        <v>0.02996689016733711</v>
       </c>
       <c r="I19">
-        <v>0.003772926637106266</v>
+        <v>0.003240035367937821</v>
       </c>
       <c r="J19">
-        <v>0.5727192254271785</v>
+        <v>0.5225798328481801</v>
       </c>
       <c r="K19">
-        <v>0.4887273003391606</v>
+        <v>0.3973674398827214</v>
       </c>
       <c r="L19">
-        <v>0.1175543587247319</v>
+        <v>0.1698061436846068</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1318452618949024</v>
       </c>
       <c r="N19">
-        <v>0.1900666505814925</v>
+        <v>0.1216221320449762</v>
       </c>
       <c r="O19">
-        <v>0.5830038369861299</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2097879090255006</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5933417359392266</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.740431442460135</v>
+        <v>3.737035932286403</v>
       </c>
       <c r="C20">
-        <v>0.7860666588897516</v>
+        <v>0.8666280132642612</v>
       </c>
       <c r="D20">
-        <v>0.03765334587542313</v>
+        <v>0.04362818067684415</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.286663804443165</v>
+        <v>1.086637146513041</v>
       </c>
       <c r="G20">
-        <v>1.075298639673036</v>
+        <v>0.8776586327300038</v>
       </c>
       <c r="H20">
-        <v>0.002739624582078104</v>
+        <v>0.002268309999005069</v>
       </c>
       <c r="I20">
-        <v>0.002913887652072233</v>
+        <v>0.002714766245841105</v>
       </c>
       <c r="J20">
-        <v>0.6884493961131568</v>
+        <v>0.5920601270492512</v>
       </c>
       <c r="K20">
-        <v>0.6119077154458381</v>
+        <v>0.4775706439342073</v>
       </c>
       <c r="L20">
-        <v>0.09902539604290439</v>
+        <v>0.1973360010335554</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1651462293667407</v>
       </c>
       <c r="N20">
-        <v>0.2864379977098821</v>
+        <v>0.09882487688589414</v>
       </c>
       <c r="O20">
-        <v>0.6613100673956325</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3147952763936672</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6749868712835436</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.206737449390516</v>
+        <v>4.199143839806197</v>
       </c>
       <c r="C21">
-        <v>0.8765664667798205</v>
+        <v>0.9536960613779684</v>
       </c>
       <c r="D21">
-        <v>0.04076294250312884</v>
+        <v>0.05014926474953185</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.390090300057622</v>
+        <v>1.111291132777083</v>
       </c>
       <c r="G21">
-        <v>1.176725539551867</v>
+        <v>1.018327419304697</v>
       </c>
       <c r="H21">
-        <v>0.0009223164004350526</v>
+        <v>0.0007956389905512395</v>
       </c>
       <c r="I21">
-        <v>0.001877176807748349</v>
+        <v>0.0021152338619288</v>
       </c>
       <c r="J21">
-        <v>0.7298541383629242</v>
+        <v>0.484816118003593</v>
       </c>
       <c r="K21">
-        <v>0.638918771522043</v>
+        <v>0.4642662723282314</v>
       </c>
       <c r="L21">
-        <v>0.1041417537658571</v>
+        <v>0.1868424144395746</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1681877753765768</v>
       </c>
       <c r="N21">
-        <v>0.3248522854811</v>
+        <v>0.1029439384802515</v>
       </c>
       <c r="O21">
-        <v>0.7474625841716431</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3568540993564113</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7633818347282286</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.514613001586724</v>
+        <v>4.503849790869538</v>
       </c>
       <c r="C22">
-        <v>0.9361486694817529</v>
+        <v>1.009009595603516</v>
       </c>
       <c r="D22">
-        <v>0.04249780828262928</v>
+        <v>0.05438765649015664</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.452490319883992</v>
+        <v>1.120085963136688</v>
       </c>
       <c r="G22">
-        <v>1.239182256776985</v>
+        <v>1.115778239464404</v>
       </c>
       <c r="H22">
-        <v>0.0003068287090401967</v>
+        <v>0.0002908552217368854</v>
       </c>
       <c r="I22">
-        <v>0.001410499746698157</v>
+        <v>0.00171050784405935</v>
       </c>
       <c r="J22">
-        <v>0.7550273307159614</v>
+        <v>0.4159707422904262</v>
       </c>
       <c r="K22">
-        <v>0.6544546653003209</v>
+        <v>0.4529677662696372</v>
       </c>
       <c r="L22">
-        <v>0.1079451095194202</v>
+        <v>0.1792797755274975</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1693995428353183</v>
       </c>
       <c r="N22">
-        <v>0.3447649593021822</v>
+        <v>0.1063015755651939</v>
       </c>
       <c r="O22">
-        <v>0.800948748703938</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3787948655894695</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8181754793798461</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.350585768127303</v>
+        <v>4.341637044209278</v>
       </c>
       <c r="C23">
-        <v>0.9016588077233223</v>
+        <v>0.9790878633029081</v>
       </c>
       <c r="D23">
-        <v>0.04145377989826926</v>
+        <v>0.05162070299446242</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.424239742955933</v>
+        <v>1.124958514994546</v>
       </c>
       <c r="G23">
-        <v>1.211069413497341</v>
+        <v>1.059763099847672</v>
       </c>
       <c r="H23">
-        <v>0.0005896477288995783</v>
+        <v>0.0005219570754342318</v>
       </c>
       <c r="I23">
-        <v>0.001299288945200594</v>
+        <v>0.001518041340278664</v>
       </c>
       <c r="J23">
-        <v>0.7442388392910004</v>
+        <v>0.466506322530023</v>
       </c>
       <c r="K23">
-        <v>0.6495144864826941</v>
+        <v>0.4639410274879481</v>
       </c>
       <c r="L23">
-        <v>0.1059090336973103</v>
+        <v>0.1849525438287252</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1707871971795036</v>
       </c>
       <c r="N23">
-        <v>0.3335140502391454</v>
+        <v>0.1045112149695235</v>
       </c>
       <c r="O23">
-        <v>0.772040402278094</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3664695906205679</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7885912846818286</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.730429990582991</v>
+        <v>3.726888038104221</v>
       </c>
       <c r="C24">
-        <v>0.7764925535433633</v>
+        <v>0.8578833806843136</v>
       </c>
       <c r="D24">
-        <v>0.03775937132144236</v>
+        <v>0.04381787503067613</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.311516208279627</v>
+        <v>1.10705625048756</v>
       </c>
       <c r="G24">
-        <v>1.09865195986356</v>
+        <v>0.8955659607189261</v>
       </c>
       <c r="H24">
-        <v>0.002547054179938835</v>
+        <v>0.002084855318613799</v>
       </c>
       <c r="I24">
-        <v>0.002389900784586452</v>
+        <v>0.002096202652952073</v>
       </c>
       <c r="J24">
-        <v>0.7004555386039613</v>
+        <v>0.6026246923232321</v>
       </c>
       <c r="K24">
-        <v>0.6265115591048627</v>
+        <v>0.4883819983252167</v>
       </c>
       <c r="L24">
-        <v>0.09824814173341245</v>
+        <v>0.2013189060978569</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1692535539465716</v>
       </c>
       <c r="N24">
-        <v>0.2921742040266793</v>
+        <v>0.09759865270744505</v>
       </c>
       <c r="O24">
-        <v>0.6635159406839861</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3211563138757043</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6774030224362804</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.064064689044926</v>
+        <v>3.06364460759761</v>
       </c>
       <c r="C25">
-        <v>0.6433727813143264</v>
+        <v>0.704448704094915</v>
       </c>
       <c r="D25">
-        <v>0.03389381512697298</v>
+        <v>0.0391973908881269</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.195169739852219</v>
+        <v>1.030476593976005</v>
       </c>
       <c r="G25">
-        <v>0.9827022968364787</v>
+        <v>0.8106085317762961</v>
       </c>
       <c r="H25">
-        <v>0.006357195640124103</v>
+        <v>0.00521316096210972</v>
       </c>
       <c r="I25">
-        <v>0.005551905375729582</v>
+        <v>0.004267932847439759</v>
       </c>
       <c r="J25">
-        <v>0.6561607572439101</v>
+        <v>0.5848688384261891</v>
       </c>
       <c r="K25">
-        <v>0.6042059307640386</v>
+        <v>0.487854459808716</v>
       </c>
       <c r="L25">
-        <v>0.09001425971263721</v>
+        <v>0.2095707427356608</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1588324671699795</v>
       </c>
       <c r="N25">
-        <v>0.2480381038187147</v>
+        <v>0.08951440457417803</v>
       </c>
       <c r="O25">
-        <v>0.5471019951127829</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2729382688408322</v>
       </c>
       <c r="Q25">
+        <v>0.5580407013634172</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
